--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -614,6 +614,11 @@
     <t xml:space="preserve">1.初始装备一件火铳，火铳是一件高伤长CD的武器(B)
 2.角色升级时，属性不会变化，但是获得强化火铳的资源，可以选择强化火铳方案(X)
 </t>
+  </si>
+  <si>
+    <t>BD思路：
+1.有一把很强的武器，角色是附赠的(可以把武器给其他人)
+2.武器属于很强的单发攻击，带有成长性</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1654,8 @@
   <sheetPr/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -2147,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>26</v>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0159863-039E-4779-A557-DFFE35E874FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>26691</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备槽位标准为4个槽位，每个部位不能超过3个最大值
@@ -45,12 +39,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>需要设计师对特性进行等级划分，分为SABC，其中消耗：S(5),A(2),B(1),C(-1),D(-3)
@@ -59,24 +54,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>这里只是定性，标定特性是什么，以及特性的等级，其中用可改变变量特殊表示出来，后续可以根据特性等级来整体调整数值</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>属性方面全部不填具体属性，全部填等级：
@@ -99,12 +96,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示该设计是否确定在游戏中使用，分为3个状态：
@@ -119,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -188,6 +186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.获得</t>
@@ -197,6 +196,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -206,6 +206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理强度的防御强度(A)
@@ -216,6 +217,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>15%</t>
@@ -225,6 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>概率再次攻击一次(A)
@@ -235,6 +238,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -244,6 +248,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>纯粹伤害(B)</t>
@@ -281,6 +286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.获得魔法强度时，将获得加值</t>
@@ -290,6 +296,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -299,6 +306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的物理强度(A)
@@ -309,6 +317,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -318,6 +327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的魔法强度(A)
@@ -328,6 +338,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>50%</t>
@@ -337,6 +348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>转换为护盾值(B)</t>
@@ -359,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用大剑武器时，获得</t>
@@ -368,6 +381,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>80%</t>
@@ -377,6 +391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害加成(S)
@@ -387,6 +402,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -396,6 +412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理强度得生命窃取属性(A)
@@ -422,6 +439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用远程武器时，获得</t>
@@ -431,6 +449,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -440,6 +459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>暴击率加成(A)
@@ -473,36 +493,6 @@
     <t>[1,2,1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外防御强度加成(S)
-2.无法获得移速，移速将保持在1点(B)</t>
-    </r>
-  </si>
-  <si>
     <t>[B,B,B,A]</t>
   </si>
   <si>
@@ -525,6 +515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用骑枪武器时，会在移动阶段对移动路径上的敌人造成一次伤害(不计入本次伤害中)(S)
@@ -535,6 +526,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -544,6 +536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>加成，可叠加(A)</t>
@@ -568,6 +561,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.额外获得一个饰品槽位(A)
@@ -579,6 +573,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -588,6 +583,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的护盾值(A)</t>
@@ -611,22 +607,299 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">1.初始装备一件火铳，火铳是一件高伤长CD的武器(B)
-2.角色升级时，属性不会变化，但是获得强化火铳的资源，可以选择强化火铳方案(X)
-</t>
+    <t>永恒受难者*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排+辅助+肉盾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,1,3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外防御强度加成(S)
+2.无法获得移速，移速将保持在1点(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.被放置后永远无法主动或被动位移。（B）
+2.永远无法以任何形式造成伤害。(D)
+3.承受一定伤害后，会触发随机的,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率可参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的事件（神迹）。(S)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,B,A]*（增益光环数值）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.纯辅助型肉盾，将其放在我方极度脆弱的输出大核前使用
+2.使其尽可能承受更多伤害但不致死以提高有利事件概率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落章节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥达斯（Midas）的收税官*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.不能当作传统前排战士使用，等范围技能转好后拉到前排
+打出输出偷取金币后拉回安全范围
+2.尽量堆高生存能力，只要金币充足不缺输出，对时机掌握比较严格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.基础属性较低，但会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据玩家当前所拥有的金币数量而获得全面增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+2.每次攻击命中对方角色时会偷取一定数量的金币。（B）
+3.角色死亡时玩家会失去”已经偷取到的金币“的几倍大小的金币。(D)
+4.装备和”黄金“相关的装备后会扩大技能范围。(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨弦人*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.装备[乐器]后，伤害类型由魔法转化为虔诚。（A）
+2.在击杀X只等级小于等于自己的敌人后会开始拨弦，每次攻击会让X个敌人后退一格。（A）
+3.放置后可以选择模式，不同模式有不同的攻击范围和伤害。（B）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,C]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B.B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,B,S,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.脆弱的玻璃大炮，想尽办法保护好她，会带来很高的回报。
+2.令其多收割残血，争取早点进化技能。
+3.乐器类武器比较珍惜，尽量有乐器武器后再使用这个角色。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.初始装备一件火铳，火铳是一件高伤长CD的武器(B)
+2.角色升级时，属性不会变化，但是获得强化火铳的资源，可以选择强化火铳方案(X)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊喜先生*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,C]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.高速极端注重攻击的无护盾自爆型输出手，总是会因为特性冲在最前方，需要和能提供高回复和高护盾的辅助搭配保证其存活。
+2.基础攻击极其优秀，所有养成资源可以全部堆在生存能力上。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.玩家操控选择其移动方向时不能向后方移动。（D）
+2.在攻击一次后会被炸得退后X格。(C)
+3.攻击会对以自身为中心3*3范围内敌人造成极高倍率伤害。(S)
+4.每装备一件爆炸类武器，会获得X%的伤害加成。(A)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑劣掌秤者*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+后排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+后排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.回合开始前会投掷骰子决定天秤偏向，根据大小敌我双方会有一方获得全体伤害加成BUFF，但我方可以使用金币改写结果。（S）
+2.攻击时如果该单位物理攻击力低于对方，则将双方物理攻击力平分。（A）
+3.受到魔法攻击时会无法行动一回合。（D）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A.B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.针对物理敌人占大多数的关卡可以使用的辅助型角色。
+2.堆高生存，用于克制高物理攻击力的敌人，偷到攻击力后可以打出一定输出。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,177 +912,60 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF19191A"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,198 +974,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1032,255 +1002,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,62 +1027,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1641,42 +1334,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.4444444444444" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.7777777777778" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1111111111111" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7777777777778" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.88888888888889" style="2"/>
-    <col min="12" max="12" width="24.5555555555556" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88888888888889" style="2"/>
-    <col min="14" max="14" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.88888888888889" style="2"/>
-    <col min="16" max="16" width="56.4444444444444" customWidth="1"/>
-    <col min="17" max="25" width="8.88888888888889" style="2"/>
-    <col min="26" max="26" width="14.3333333333333" style="2"/>
-    <col min="27" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="2"/>
+    <col min="13" max="13" width="35.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="2"/>
+    <col min="15" max="15" width="18.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="2"/>
+    <col min="17" max="17" width="56.5" customWidth="1"/>
+    <col min="18" max="26" width="8.875" style="2"/>
+    <col min="27" max="27" width="14.375" style="2"/>
+    <col min="28" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="71" customHeight="1" spans="1:17">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,50 +1379,53 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:17">
+    <row r="2" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1739,50 +1435,50 @@
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="46.8" spans="1:17">
+    <row r="3" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1792,50 +1488,50 @@
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="46.8" spans="1:17">
+    <row r="4" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1845,50 +1541,50 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="46.8" spans="1:17">
+    <row r="5" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1898,50 +1594,50 @@
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="46.8" spans="1:17">
+    <row r="6" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1951,212 +1647,479 @@
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="P6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="46.8" spans="1:17">
+    <row r="7" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="46.8" spans="1:17">
+    <row r="8" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="62.4" spans="1:17">
+    <row r="9" spans="1:27" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>26</v>
+      <c r="D10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="13:26">
-      <c r="M15" s="5"/>
+    <row r="11" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="O15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -2166,11 +2129,11 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="13:26">
-      <c r="M16" s="5"/>
+    <row r="16" spans="1:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="O16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2180,11 +2143,11 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="13:26">
-      <c r="M17" s="5"/>
+    <row r="17" spans="14:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="O17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2194,11 +2157,11 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="13:26">
-      <c r="M18" s="5"/>
+    <row r="18" spans="14:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -2208,11 +2171,11 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="13:26">
-      <c r="M19" s="5"/>
+    <row r="19" spans="14:27" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="O19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -2222,10 +2185,11 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -32,7 +32,7 @@
     <author>26691</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>职业定位</t>
+  </si>
+  <si>
+    <t>掉落章节</t>
   </si>
   <si>
     <t>装备槽位
@@ -140,7 +143,8 @@
     <t>职业特性</t>
   </si>
   <si>
-    <t>属性得分</t>
+    <t>属性成长
+得分</t>
   </si>
   <si>
     <t>生命值,回复</t>
@@ -602,7 +606,7 @@
 2.强是强，但是要注意不要给非目标单位上盾，有一定站位需求</t>
   </si>
   <si>
-    <t>火铳手</t>
+    <t>火铳手*</t>
   </si>
   <si>
     <t>物理+后排+输出</t>
@@ -611,14 +615,539 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">1.初始装备一件火铳，火铳是一件高伤长CD的武器(B)
-2.角色升级时，属性不会变化，但是获得强化火铳的资源，可以选择强化火铳方案(X)
-</t>
+    <t>1.初始装备一件火铳，火铳是一件高伤长CD的武器(B)
+2.角色升级时，属性不会变化，但是获得强化火铳的资源，可以选择强化火铳方案(X)</t>
   </si>
   <si>
     <t>BD思路：
 1.有一把很强的武器，角色是附赠的(可以把武器给其他人)
 2.武器属于很强的单发攻击，带有成长性</t>
+  </si>
+  <si>
+    <t>永恒受难者*</t>
+  </si>
+  <si>
+    <t>前排+辅助+肉盾</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>[0,1,3]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.被放置后永远无法主动或被动位移。（B）
+2.永远无法以任何形式造成伤害。(D)
+3.承受一定伤害后，会触发随机的,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率可参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的事件（神迹）。(S)</t>
+    </r>
+  </si>
+  <si>
+    <t>[S,A]</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>[B,B,B,A]*（增益光环数值）</t>
+  </si>
+  <si>
+    <t>BD思路：
+1.纯辅助型肉盾，将其放在我方极度脆弱的输出大核前使用
+2.使其尽可能承受更多伤害但不致死以提高有利事件概率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弥达斯（Midas）
+收税官*</t>
+    </r>
+  </si>
+  <si>
+    <t>魔法+前排+输出</t>
+  </si>
+  <si>
+    <t>贪婪之章</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.基础属性较低，但会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据玩家当前的金币数量而获得增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+2.每次攻击命中对方角色时会偷取一定数量的金币。（B）
+3.角色死亡时玩家会失去”已经偷取到的金币“的几倍大小的金币。(D)
+4.装备和”黄金“相关的装备后会扩大技能范围。(B)</t>
+    </r>
+  </si>
+  <si>
+    <t>BD思路：
+1.不能当作传统前排战士使用，等范围技能转好后拉到前排
+打出输出偷取金币后拉回安全范围
+2.尽量堆高生存能力，只要金币充足不缺输出，对时机掌握比较严格</t>
+  </si>
+  <si>
+    <t>拨弦人*</t>
+  </si>
+  <si>
+    <t>虔诚+后排+输出</t>
+  </si>
+  <si>
+    <t>傲慢之章</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.装备[乐器]类武器后，伤害类型由魔法转化为虔诚。（S）
+2.在参与击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等级小于等于该单位的敌人后，攻击会使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人击退一格。（B）
+3.装备[乐器]类武器后被控制时会大幅降低伤害。（D）</t>
+    </r>
+  </si>
+  <si>
+    <t>[C,B]</t>
+  </si>
+  <si>
+    <t>[B,A,S,C]</t>
+  </si>
+  <si>
+    <t>BD思路：
+1.玻璃大炮，放在可靠的坦克后才能保证输出环境。
+2.有无乐器类武器输出差别巨大，有乐器类武器使用该角色才比较强力。
+3.堆高爆发能力，使其能收割更多敌人后升级技能。</t>
+  </si>
+  <si>
+    <t>惊喜先生*</t>
+  </si>
+  <si>
+    <t>物理+前排+输出</t>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+  </si>
+  <si>
+    <t>[3,0,1]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.在玩家选择移动策略时无法向后移动。（D）
+2.在爆炸后将被炸退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）
+3.与怪物接触时将以自身为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内爆炸，造成极高倍率的物理伤害。(S)
+4.装备与爆炸相关的武器时，会获得伤害加成。(A)</t>
+    </r>
+  </si>
+  <si>
+    <t>[B,C]</t>
+  </si>
+  <si>
+    <t>[A,C]</t>
+  </si>
+  <si>
+    <t>BD思路：
+1.高速极端注重爆发伤害的脆皮输出手，需要搭配能提供高回复和高护盾的队友使用，以确保能在冲到敌人脸上不被击杀。
+2.因为基础攻击属性极高，所以可以将所有养成资源投入到确保生存上。</t>
+  </si>
+  <si>
+    <t>卑劣掌秤者*</t>
+  </si>
+  <si>
+    <t>物理+后排+辅助</t>
+  </si>
+  <si>
+    <t>狡诈之章</t>
+  </si>
+  <si>
+    <t>1.在回合开始时投掷两枚骰子比大小，根据大小会使敌方或我方全体获得伤害加成BUFF，但是我方可以使用金币改变结果。（S）
+2.在攻击命中时如果敌人的物理强度比该单位更高，该单位会与之平衡物理强度。（A）
+3.被魔法伤害命中后会停止行动1回合。（D）</t>
+  </si>
+  <si>
+    <t>[C,B,B,A]</t>
+  </si>
+  <si>
+    <t>BD思路：
+1.特化的辅助，适合了解关卡敌人构成后针对使用。
+2.堆高生存即可，在针对克制高物理强度的敌人时偷取属性，也可以打出不错的输出。</t>
+  </si>
+  <si>
+    <t>不败堡垒*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.无法被击退或强制位移。（B）
+2.当受到攻击时会反击攻击者和自己防御强度相关的伤害。(A)
+3.当装备【盾牌】死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
+4.受到的虔诚伤害将会*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。（C）</t>
+    </r>
+  </si>
+  <si>
+    <t>[A,A]</t>
+  </si>
+  <si>
+    <t>[B,B,B,S]</t>
+  </si>
+  <si>
+    <t>BD思路：
+1.传统的高甲肉盾，但具有一定的反击能力，堆高防御强度和血量即可。
+2.可用于针对高频率攻击的敌人。</t>
+  </si>
+  <si>
+    <t>钩吻*</t>
+  </si>
+  <si>
+    <t>魔法+后排+输出</t>
+  </si>
+  <si>
+    <t>1.每次攻击命中后会给予敌人一层“寒毒”状态，至多10层。（B）
+2.当拥有“寒毒”的敌人死亡后，会引发爆炸，在3*3范围内造成该角色最大生命值*“寒毒”层数的魔法伤害。（A）</t>
+  </si>
+  <si>
+    <t>BD思路：
+1.采用高频率的武器快速叠高“寒毒”状态，
+配合能收割残血的队友打出爆炸效果。</t>
+  </si>
+  <si>
+    <t>凝聚者</t>
+  </si>
+  <si>
+    <t>物理+前排+半肉战士</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.获得额外的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护甲槽位，但是最大生命值会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）
+2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为随机一名近战（攻击距离1）友军提供防御强度加成buff。(A)
+3.当正在为友军提供BUFF时，会获得一定的最大生命值。（B）</t>
+    </r>
+  </si>
+  <si>
+    <t>BD思路：
+1.配合强力战士队友冲阵，并吸引足够火力。
+2.军旗是很好用的BUFF武器，属性不高，但是越到后期越实用。</t>
+  </si>
+  <si>
+    <t>锁链妖巫</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.装备[锁链]类武器后，攻击将会额外攻击一名2格内的敌人。(A)
+2.装备[锁链]类武器后，攻击命中时，
+会再对同一目标造成一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25%伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的攻击（触发特效）。（A）</t>
+    </r>
+  </si>
+  <si>
+    <t>BD思路：
+1.常规的特效输出角色，给予附加攻击特效的武器会获得更高的输出。
+2.因为特性存在，可以站位稍微靠前，以溅射死脆皮角色。</t>
+  </si>
+  <si>
+    <t>“清道夫”</t>
+  </si>
+  <si>
+    <t>魔法+中排+辅助</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.上场后全场每死亡1名敌人，最大生命值便永久增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2.装备带来的防御强度加成会乘以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.2倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（B）
+3.以自身为中心的X*X范围内所有友军每次攻击
+附带该单位最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的魔法伤害。（B）</t>
+    </r>
+  </si>
+  <si>
+    <t>BD思路：
+1.首先确保生存不被秒杀的同时尽量叠高血量。
+2.生命属性绝对足够，所以优先堆高防御强度，以保证在队友最密集的地方长久存活。</t>
   </si>
 </sst>
 </file>
@@ -653,9 +1182,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF19191A"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -814,7 +1343,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +1358,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -968,12 +1509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1696,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,16 +1720,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1203,105 +1738,126 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1652,36 +2208,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.4444444444444" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.7777777777778" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1111111111111" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7777777777778" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.88888888888889" style="2"/>
-    <col min="12" max="12" width="24.5555555555556" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88888888888889" style="2"/>
-    <col min="14" max="14" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.88888888888889" style="2"/>
-    <col min="16" max="16" width="56.4444444444444" customWidth="1"/>
-    <col min="17" max="25" width="8.88888888888889" style="2"/>
-    <col min="26" max="26" width="14.3333333333333" style="2"/>
-    <col min="27" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="4.11111111111111" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.8888888888889" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.4444444444444" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.1111111111111" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.88888888888889" style="3"/>
+    <col min="13" max="13" width="28.4444444444444" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.88888888888889" style="3"/>
+    <col min="15" max="15" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.88888888888889" style="3"/>
+    <col min="17" max="17" width="56.4444444444444" customWidth="1"/>
+    <col min="18" max="26" width="8.88888888888889" style="3"/>
+    <col min="27" max="27" width="14.3333333333333" style="3"/>
+    <col min="28" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="71" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="71" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,10 +2250,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1703,7 +2262,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1715,10 +2274,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1733,37 +2292,37 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:17">
+    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:18">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8">
         <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -1772,160 +2331,161 @@
         <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="46.8" spans="1:18">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="46.8" spans="1:18">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="46.8" spans="1:17">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="46.8" spans="1:17">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" ht="46.8" spans="1:17">
+    <row r="5" s="2" customFormat="1" ht="46.8" spans="1:18">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>40</v>
@@ -1937,296 +2497,760 @@
         <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>26</v>
+      <c r="P5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" ht="46.8" spans="1:17">
+    <row r="6" s="2" customFormat="1" ht="46.8" spans="1:18">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2">
         <v>2</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="46.8" spans="1:18">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="46.8" spans="1:18">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>26</v>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" ht="46.8" spans="1:17">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    <row r="9" s="4" customFormat="1" ht="46.8" spans="1:18">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="46.8" spans="1:17">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" spans="1:17">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="46.8" spans="1:17">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="N18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="13:26">
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="13:26">
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="13:26">
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="13:26">
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="13:26">
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="J19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC49FE-EEAE-4AF9-85A0-0238E51B2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>26691</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -686,7 +679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">	</t>
     </r>
@@ -914,38 +907,6 @@
     <t>不败堡垒*</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.无法被击退或强制位移。（B）
-2.当受到攻击时会反击攻击者和自己防御强度相关的伤害。(A)
-3.当装备【盾牌】死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
-4.受到的虔诚伤害将会*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倍。（C）</t>
-    </r>
-  </si>
-  <si>
     <t>[A,A]</t>
   </si>
   <si>
@@ -963,10 +924,6 @@
     <t>魔法+后排+输出</t>
   </si>
   <si>
-    <t>1.每次攻击命中后会给予敌人一层“寒毒”状态，至多10层。（B）
-2.当拥有“寒毒”的敌人死亡后，会引发爆炸，在3*3范围内造成该角色最大生命值*“寒毒”层数的魔法伤害。（A）</t>
-  </si>
-  <si>
     <t>BD思路：
 1.采用高频率的武器快速叠高“寒毒”状态，
 配合能收割残血的队友打出爆炸效果。</t>
@@ -978,55 +935,6 @@
     <t>物理+前排+半肉战士</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.获得额外的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>护甲槽位，但是最大生命值会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>降低20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（B）
-2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为随机一名近战（攻击距离1）友军提供防御强度加成buff。(A)
-3.当正在为友军提供BUFF时，会获得一定的最大生命值。（B）</t>
-    </r>
-  </si>
-  <si>
     <t>BD思路：
 1.配合强力战士队友冲阵，并吸引足够火力。
 2.军旗是很好用的BUFF武器，属性不高，但是越到后期越实用。</t>
@@ -1077,90 +985,696 @@
     <t>魔法+中排+辅助</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.上场后全场每死亡1名敌人，最大生命值便永久增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-2.装备带来的防御强度加成会乘以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.2倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（B）
-3.以自身为中心的X*X范围内所有友军每次攻击
-附带该单位最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的魔法伤害。（B）</t>
-    </r>
+    <t>觅血鬣狗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+坦克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,C]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1.首先确保生存不被秒杀的同时尽量叠高血量。
 2.生命属性绝对足够，所以优先堆高防御强度，以保证在队友最密集的地方长久存活。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.输出方面并不出色，但因为有很高的生命窃取属性，堆高生命值和输出也能变相提高坦度。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+后排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.每一回合使随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值。（A）
+2.每当一名友方单位即将阵亡时，镇魂歌者会令其保留1点生命值（仅一次）。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.无法被击退或强制位移。（B）
+2.当装备【盾牌】死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
+3.受到的虔诚伤害将会*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的魔法伤害。除此之外钩吻还会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得永久的X%点魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.获得额外的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护甲槽位，但是最大生命值会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）
+2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为随机一名近战（攻击距离1）友军提供防御强度加成buff。(A)
+3.当正在为友军提供BUFF时，会获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%的最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.保证生存即可，靠被动特性打输出。
+2.搭配能够提供较高奶量或护盾的辅助，可以给C位第二条生命。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂歌姬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>归岱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+中排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 进入以其为中心3*3范围内的敌人，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值低于X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会直接死亡。（S）
+2. 在场每存在1名敌人，造成的伤害便会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.多堆高生存，以确保可以走到前排触发特性而不被秒杀。
+2.搭配可以迅速清场的输出大核心最佳，不然输出会被极大限制。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.上场后全场每死亡1名敌人，最大生命值便永久增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2.以其为中心的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的友军防御强度乘以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.2倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>影袭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+后排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,C]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.特化的针对后排敌人的C位，有高暴击率和较长的攻击距离，所以优先堆高攻击力便可。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.只会攻击且固定攻击与其处于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同一行上距离其最远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的那个敌人。（B）
+2.每有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外的1攻击距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，便会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%的伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3.每装备一把“匕首”类武器，便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%暴击几率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>躁狂屠夫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命窃取*1.5倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2.生命回复将永久为0，每当有敌人死亡时回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最大生命值。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+中排+半肉输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,C]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害输出*0.5倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（D）
+2. 每当场上存在一个当前血量比该单位低的角色（包括友军），便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%攻击速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+3. 生命窃取固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个较高的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 适合对抗脆皮较多的关卡，或进入队友可以快速造成大量伤害的阵容。
+2.堆高生命值和攻击力享受特性加成，属于爆发很高但持续很弱的角色，可以适量补充移动能力最大化利用爆发期。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击距离为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的敌人对该单位发起攻击时</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,151 +1699,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1342,8 +1712,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1352,204 +1750,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1572,255 +1790,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,12 +1807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,71 +1821,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2202,45 +2128,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.11111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.4444444444444" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7777777777778" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7777777777778" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.88888888888889" style="3"/>
-    <col min="13" max="13" width="28.4444444444444" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88888888888889" style="3"/>
-    <col min="15" max="15" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.88888888888889" style="3"/>
-    <col min="17" max="17" width="56.4444444444444" customWidth="1"/>
-    <col min="18" max="26" width="8.88888888888889" style="3"/>
-    <col min="27" max="27" width="14.3333333333333" style="3"/>
-    <col min="28" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="3"/>
+    <col min="13" max="13" width="28.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="3"/>
+    <col min="15" max="15" width="18.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="3"/>
+    <col min="17" max="17" width="56.5" customWidth="1"/>
+    <col min="18" max="26" width="8.875" style="3"/>
+    <col min="27" max="27" width="14.375" style="3"/>
+    <col min="28" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="71" customHeight="1" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,10 +2175,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2262,7 +2187,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2277,7 +2202,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2296,7 +2221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:18">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2309,13 +2234,13 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2342,14 +2267,14 @@
       <c r="P2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="46.8" spans="1:18">
+    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2362,13 +2287,13 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2395,14 +2320,14 @@
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="46.8" spans="1:18">
+    <row r="4" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2418,7 +2343,7 @@
       <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="3">
@@ -2448,14 +2373,14 @@
       <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="46.8" spans="1:18">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2465,14 +2390,13 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="2">
@@ -2502,14 +2426,14 @@
       <c r="P5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="46.8" spans="1:18">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2519,14 +2443,13 @@
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="2">
@@ -2556,14 +2479,14 @@
       <c r="P6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="46.8" spans="1:18">
+    <row r="7" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2579,7 +2502,7 @@
       <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="3">
@@ -2609,14 +2532,14 @@
       <c r="P7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="46.8" spans="1:18">
+    <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2632,7 +2555,7 @@
       <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="3">
@@ -2662,599 +2585,927 @@
       <c r="P8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="46.8" spans="1:18">
+    <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="L9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="N9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+      <c r="P9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="46.8" spans="1:17">
+    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="L12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="11" t="s">
+      <c r="P12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="L14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="5" t="s">
+      <c r="N14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="11" t="s">
+      <c r="P14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="5">
-        <v>3</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="O15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>106</v>
-      </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>117</v>
+      <c r="P18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" ht="80.1" customHeight="1" spans="1:17">
+    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E21" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="G22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="B23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>121</v>
+      <c r="Q26" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC49FE-EEAE-4AF9-85A0-0238E51B2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C1AF8E-7135-4632-B0F5-85355EB56A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -1023,11 +1023,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">BD思路：
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>BD思路：
 1.输出方面并不出色，但因为有很高的生命窃取属性，堆高生命值和输出也能变相提高坦度。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1037,8 +1032,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.每一回合使随机</t>
+    <t>[1,1,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
     </r>
     <r>
       <rPr>
@@ -1048,17 +1047,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>X名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌人损失</t>
+      <t>最大生命值X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的魔法伤害。除此之外钩吻还会</t>
     </r>
     <r>
       <rPr>
@@ -1068,83 +1067,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大生命值。（A）
-2.每当一名友方单位即将阵亡时，镇魂歌者会令其保留1点生命值（仅一次）。（A）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,1,2]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.无法被击退或强制位移。（B）
-2.当装备【盾牌】死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
-3.受到的虔诚伤害将会*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倍。（C）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大生命值X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的魔法伤害。除此之外钩吻还会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>获得永久的X%点魔法强度</t>
     </r>
     <r>
@@ -1156,69 +1078,6 @@
         <charset val="134"/>
       </rPr>
       <t>。（S）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.获得额外的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>护甲槽位，但是最大生命值会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>降低20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（B）
-2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为随机一名近战（攻击距离1）友军提供防御强度加成buff。(A)
-3.当正在为友军提供BUFF时，会获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%的最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（B）</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1632,18 +1491,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞体</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法+前排+输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>通用</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>魔法+前排+坦克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 优先堆高防御强度以求生存时间，摆在输出前以阻挡没有瞬间位移能力的突进敌人。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1. 当有</t>
     </r>
@@ -1665,7 +1529,1113 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>的敌人对该单位发起攻击时</t>
+      <t>的敌人对该单位发起攻击时并令其受伤时，会被弹开直到到达棋盘边界或者与另一个敌人碰撞，造成该敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值X%的魔法伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+2. 无法拥有任何形式的护盾和护盾回复手段。（D）
+3. 装备“盾牌”类武器后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%最大生命值提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+后排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当所有友方角色全部死亡后，该单位将会获得巨额的各项属性加成（几乎翻倍），并每回合开始时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回复X%的最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，伤害类型由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理变为虔诚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+2. 当这个角色存在场上时，所有友方角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到额外X%伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（不包括自己）（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命底牌*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,S,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 前中期非常强势的输出位，给予正常的输出位配置即可，拥有非常强的残局能力，但是带来的副作用也非常巨大。
+2. 在后期会非常疲软，一个角色难以支撑整个战局，得作为最后底牌使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>色欲之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫堇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂柳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+后排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当该单位存在时，所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值高于该单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的友方单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%的最大生命值加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2. 当上场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [垂柳]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 时，该单位会与之链接，令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [垂柳]承受伤害减少X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 当 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[垂柳] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡时，该单位会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对所有敌方单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身生命值*X%的魔法伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当该单位存在时，所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值低于该单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的友方单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%的暴击和闪避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">加成。（A）
+2. 当上场 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[紫堇]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 时，该单位会与之链接，令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [紫堇]造成伤害增加X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。(B)
+3. 当 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[紫堇] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡时，该单位会对所有友方单位回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身生命值*X%的血量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.无法被击退或强制位移。（B）
+2.当装备[盾牌]类武器死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
+3.受到的虔诚伤害将会*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 与 [垂柳] 几乎绑定出场，少有的不追求生存的辅助角色，为追求最大收益甚至可以装备减少最大生命值的装备，但会较为冒险。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 与 [紫堇] 几乎绑定出场，必须叠高最大生命值的辅助角色，以求坦克和战士单位也能吃到特性加成。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>受福者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5（2）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+半肉输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 用于前期获取更多资源以追求后期上限的过渡角色，因为负面特性的存在，想要获得更多资源必须越大越苟，堆高生存。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外获得1~X枚额外金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 当该单位上场并存活时，我方击杀敌人时掉落装备或身心的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率略微上涨X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3. 在本章节中每存在一回合，便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少X点最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。当死亡时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损失X%的金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>血钱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+中排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 该单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%的额外生命窃取属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）
+2. 当该单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窃取了X点生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X枚金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）
+3. 生命回复属性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会转化为魔法强度。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1. 将血量保持在不会被秒杀的水平，叠高角色的生命窃取属性便可既有生存又有刷钱能力，生命回复会因为特性存在较低，但是会提供不错的输出，放在能承受一定伤害的中排边打边吸最合适。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐败瘴气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 每当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有敌人回复的生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达到该单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值的X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，触发一次以该单位为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5*5范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内的“瘴气传播”，被该技能影响到的敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合最多只能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动1格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，受到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且会被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁疗X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 两种选择，一是做传统肉盾，提高最大生命值和抗性。
+2. 减少最大生命值，力求触发更多次数的特性以让敌人全程禁疗。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>送葬之钟*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 随我远去：上场后，每经过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，会对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值最低的X名敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高倍率的物理伤害,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每击杀一名敌人，下一次触发这个特性的回合数便会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少1回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最少1回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+2. 每损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，下一次触发“随我远去”的回合数+1。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 极致暴力的战场收割机，堆高物理强度保证爆发，提高最大生命值和攻击距离保证被动不被影响技能释放和不被秒杀。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.获得额外的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护甲槽位，但是最大生命值会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）
+2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为最大生命值最低的一名友军提供防御强度加成buff。(A)
+3.当正在为友军提供BUFF时，会获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%的最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合使随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值。（A）
+2.每当一名友方单位即将阵亡时，镇魂歌者会令其保留1点生命值（仅一次）。（A）</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1674,7 +2644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +2706,19 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC0504D"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1836,6 +2819,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0504D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2134,11 +3122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2149,7 +3137,7 @@
     <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="75.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
@@ -2159,7 +3147,7 @@
     <col min="14" max="14" width="8.875" style="3"/>
     <col min="15" max="15" width="18.625" style="3" customWidth="1"/>
     <col min="16" max="16" width="8.875" style="3"/>
-    <col min="17" max="17" width="56.5" customWidth="1"/>
+    <col min="17" max="17" width="60.625" customWidth="1"/>
     <col min="18" max="26" width="8.875" style="3"/>
     <col min="27" max="27" width="14.375" style="3"/>
     <col min="28" max="16384" width="8.875" style="3"/>
@@ -2486,7 +3474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2930,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
@@ -2983,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -3036,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3142,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -3195,7 +4183,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
@@ -3225,7 +4213,7 @@
         <v>123</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3233,22 +4221,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -3266,7 +4254,7 @@
         <v>123</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>123</v>
@@ -3278,7 +4266,7 @@
         <v>123</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3286,10 +4274,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>69</v>
@@ -3301,13 +4289,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>123</v>
@@ -3319,7 +4307,7 @@
         <v>123</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>123</v>
@@ -3331,7 +4319,7 @@
         <v>123</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3339,40 +4327,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>123</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>121</v>
@@ -3384,7 +4372,7 @@
         <v>123</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3392,40 +4380,40 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>123</v>
@@ -3437,7 +4425,7 @@
         <v>123</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3445,62 +4433,567 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>165</v>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
+      <c r="B26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q26" s="9" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
+      <c r="B27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q27" s="9" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
+      <c r="B28" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q28" s="9" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
+      <c r="B29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q29" s="9" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
+      <c r="B30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q30" s="9" t="s">
-        <v>126</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C1AF8E-7135-4632-B0F5-85355EB56A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>26691</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -679,7 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">	</t>
     </r>
@@ -907,6 +914,31 @@
     <t>不败堡垒*</t>
   </si>
   <si>
+    <r>
+      <t>1.无法被击退或强制位移。（B）
+2.当装备[盾牌]类武器死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
+3.受到的虔诚伤害将会*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。（C）</t>
+    </r>
+  </si>
+  <si>
     <t>[A,A]</t>
   </si>
   <si>
@@ -924,6 +956,47 @@
     <t>魔法+后排+输出</t>
   </si>
   <si>
+    <r>
+      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的魔法伤害。除此之外钩吻还会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得永久的X%点魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）</t>
+    </r>
+  </si>
+  <si>
     <t>BD思路：
 1.采用高频率的武器快速叠高“寒毒”状态，
 配合能收割残血的队友打出爆炸效果。</t>
@@ -935,6 +1008,73 @@
     <t>物理+前排+半肉战士</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.获得额外的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护甲槽位，但是最大生命值会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降低20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）
+2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为最大生命值最低的一名友军提供防御强度加成buff。(A)
+3.当正在为友军提供BUFF时，会获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%的最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（B）</t>
+    </r>
+  </si>
+  <si>
     <t>BD思路：
 1.配合强力战士队友冲阵，并吸引足够火力。
 2.军旗是很好用的BUFF武器，属性不高，但是越到后期越实用。</t>
@@ -985,126 +1125,225 @@
     <t>魔法+中排+辅助</t>
   </si>
   <si>
-    <t>觅血鬣狗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+前排+坦克</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,1,1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,C]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,B,B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.上场后全场每死亡1名敌人，最大生命值便永久增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2.以其为中心的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的友军防御强度乘以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.2倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（B）</t>
+    </r>
   </si>
   <si>
     <t>BD思路：
 1.首先确保生存不被秒杀的同时尽量叠高血量。
 2.生命属性绝对足够，所以优先堆高防御强度，以保证在队友最密集的地方长久存活。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觅血鬣狗</t>
+  </si>
+  <si>
+    <t>物理+前排+坦克</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命窃取*1.5倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2.生命回复将永久为0，每当有敌人死亡时回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最大生命值。(A)</t>
+    </r>
   </si>
   <si>
     <t>BD思路：
 1.输出方面并不出色，但因为有很高的生命窃取属性，堆高生命值和输出也能变相提高坦度。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂歌姬</t>
   </si>
   <si>
     <t>虔诚+后排+辅助</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,1,2]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合使随机</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大生命值X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的魔法伤害。除此之外钩吻还会</t>
+        <charset val="134"/>
+      </rPr>
+      <t>X名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人损失</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得永久的X%点魔法强度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（S）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值。（A）
+2.每当一名友方单位即将阵亡时，镇魂歌者会令其保留1点生命值（仅一次）。（A）</t>
+    </r>
   </si>
   <si>
     <t>[B,B,A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1.保证生存即可，靠被动特性打输出。
 2.搭配能够提供较高奶量或护盾的辅助，可以给C位第二条生命。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇魂歌姬</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>归岱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+中排+输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 进入以其为中心3*3范围内的敌人，如果</t>
     </r>
     <r>
@@ -1112,7 +1351,6 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>生命值低于X%</t>
@@ -1132,7 +1370,6 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>降低X%</t>
@@ -1146,25 +1383,24 @@
       </rPr>
       <t>。（D）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B,B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1.多堆高生存，以确保可以走到前排触发特性而不被秒杀。
 2.搭配可以迅速清场的输出大核心最佳，不然输出会被极大限制。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.上场后全场每死亡1名敌人，最大生命值便永久增加</t>
+  </si>
+  <si>
+    <t>影袭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.只会攻击且固定攻击与其处于</t>
     </r>
     <r>
       <rPr>
@@ -1173,7 +1409,44 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>X点</t>
+      <t>同一行上距离其最远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的那个敌人。（B）
+2.每有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外的1攻击距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，便会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%的伤害加成</t>
     </r>
     <r>
       <rPr>
@@ -1183,249 +1456,52 @@
         <charset val="134"/>
       </rPr>
       <t>。（A）
-2.以其为中心的</t>
+3.每装备一把“匕首”类武器，便</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3*3范围内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的友军防御强度乘以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.2倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（B）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>影袭</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+后排+输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>狡诈之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,C]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[C,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,0,1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得X%暴击几率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）</t>
+    </r>
   </si>
   <si>
     <t>BD思路：
 1.特化的针对后排敌人的C位，有高暴击率和较长的攻击距离，所以优先堆高攻击力便可。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.只会攻击且固定攻击与其处于</t>
+  </si>
+  <si>
+    <t>躁狂屠夫</t>
+  </si>
+  <si>
+    <t>物理+中排+半肉输出</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 所有</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同一行上距离其最远</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的那个敌人。（B）
-2.每有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外的1攻击距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，便会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得X%的伤害加成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-3.每装备一把“匕首”类武器，便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得X%暴击几率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>躁狂屠夫</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴虐之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生命窃取*1.5倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-2.生命回复将永久为0，每当有敌人死亡时回复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的最大生命值。(A)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[S,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+中排+半肉输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[C,C]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害输出*0.5倍</t>
@@ -1435,7 +1511,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（D）
@@ -1446,7 +1521,6 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>获得X%攻击速度</t>
@@ -1456,7 +1530,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）
@@ -1467,7 +1540,6 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一个较高的值</t>
@@ -1477,38 +1549,36 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（A）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,B]</t>
+  </si>
+  <si>
+    <t>[C,C]</t>
   </si>
   <si>
     <t>BD思路：
 1. 适合对抗脆皮较多的关卡，或进入队友可以快速造成大量伤害的阵容。
 2.堆高生命值和攻击力享受特性加成，属于爆发很高但持续很弱的角色，可以适量补充移动能力最大化利用爆发期。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体*</t>
   </si>
   <si>
     <t>魔法+前排+坦克</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[S,A]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD思路：
-1. 优先堆高防御强度以求生存时间，摆在输出前以阻挡没有瞬间位移能力的突进敌人。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 当有</t>
     </r>
     <r>
@@ -1516,7 +1586,6 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>攻击距离为1</t>
@@ -1526,7 +1595,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的敌人对该单位发起攻击时并令其受伤时，会被弹开直到到达棋盘边界或者与另一个敌人碰撞，造成该敌人</t>
@@ -1536,7 +1604,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最大生命值X%的魔法伤害</t>
@@ -1546,7 +1613,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）
@@ -1558,7 +1624,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>获得X%最大生命值提升</t>
@@ -1568,19 +1633,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>虔诚+后排+输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>BD思路：
+1. 优先堆高防御强度以求生存时间，摆在输出前以阻挡没有瞬间位移能力的突进敌人。</t>
+  </si>
+  <si>
+    <t>致命底牌*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 当所有友方角色全部死亡后，该单位将会获得巨额的各项属性加成（几乎翻倍），并每回合开始时</t>
     </r>
     <r>
@@ -1588,7 +1660,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>回复X%的最大生命值</t>
@@ -1598,7 +1669,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，伤害类型由</t>
@@ -1608,7 +1678,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理变为虔诚</t>
@@ -1618,7 +1687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）
@@ -1629,7 +1697,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>受到额外X%伤害</t>
@@ -1639,57 +1706,36 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（不包括自己）（D）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命底牌*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[B,B,S,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1. 前中期非常强势的输出位，给予正常的输出位配置即可，拥有非常强的残局能力，但是带来的副作用也非常巨大。
 2. 在后期会非常疲软，一个角色难以支撑整个战局，得作为最后底牌使用。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫堇</t>
   </si>
   <si>
     <t>色欲之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫堇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂柳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法+后排+辅助</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+前排+辅助</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,A]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,A,B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>5（2）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 当该单位存在时，所有</t>
     </r>
     <r>
@@ -1697,7 +1743,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最大生命值高于该单位</t>
@@ -1707,7 +1752,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的友方单位</t>
@@ -1717,7 +1761,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>获得X%的最大生命值加成</t>
@@ -1727,7 +1770,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（A）
@@ -1738,7 +1780,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> [垂柳]</t>
@@ -1748,7 +1789,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 时，该单位会与之链接，令</t>
@@ -1758,7 +1798,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> [垂柳]承受伤害减少X%</t>
@@ -1767,7 +1806,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。(B)</t>
@@ -1777,7 +1815,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -1788,7 +1825,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[垂柳] </t>
@@ -1797,7 +1833,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>死亡时，该单位会</t>
@@ -1807,7 +1842,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>对所有敌方单位造成</t>
@@ -1817,7 +1851,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自身生命值*X%的魔法伤害</t>
@@ -1827,19 +1860,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。(A)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞体*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>BD思路：
+1. 与 [垂柳] 几乎绑定出场，少有的不追求生存的辅助角色，为追求最大收益甚至可以装备减少最大生命值的装备，但会较为冒险。</t>
+  </si>
+  <si>
+    <t>垂柳</t>
+  </si>
+  <si>
+    <t>物理+前排+辅助</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 当该单位存在时，所有</t>
     </r>
     <r>
@@ -1847,7 +1890,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最大生命值低于该单位</t>
@@ -1857,7 +1899,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的友方单位获得</t>
@@ -1867,7 +1908,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X%的暴击和闪避</t>
@@ -1877,7 +1917,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">加成。（A）
@@ -1888,7 +1927,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[紫堇]</t>
@@ -1898,7 +1936,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 时，该单位会与之链接，令</t>
@@ -1908,7 +1945,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> [紫堇]造成伤害增加X%</t>
@@ -1918,7 +1954,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。(B)
@@ -1929,7 +1964,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[紫堇] </t>
@@ -1939,7 +1973,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>死亡时，该单位会对所有友方单位回复</t>
@@ -1949,7 +1982,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自身生命值*X%的血量</t>
@@ -1959,189 +1991,137 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。(A)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.无法被击退或强制位移。（B）
-2.当装备[盾牌]类武器死亡后，会在原地生成一副拥有一定血量，能够反弹伤害的盾牌，X回合后自动消失。（A）
-3.受到的虔诚伤害将会*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倍。（C）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD思路：
-1. 与 [垂柳] 几乎绑定出场，少有的不追求生存的辅助角色，为追求最大收益甚至可以装备减少最大生命值的装备，但会较为冒险。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1. 与 [紫堇] 几乎绑定出场，必须叠高最大生命值的辅助角色，以求坦克和战士单位也能吃到特性加成。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>受福者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5（2）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+前排+半肉输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,B,B,A]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外获得1~X枚额外金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 当该单位上场并存活时，我方击杀敌人时掉落装备或身心的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率略微上涨X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3. 在本章节中每存在一回合，便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少X点最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。当死亡时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损失X%的金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）</t>
+    </r>
   </si>
   <si>
     <t>BD思路：
 1. 用于前期获取更多资源以追求后期上限的过渡角色，因为负面特性的存在，想要获得更多资源必须越大越苟，堆高生存。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
+  </si>
+  <si>
+    <t>血钱</t>
+  </si>
+  <si>
+    <t>魔法+中排+输出</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 该单位获得</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外获得1~X枚额外金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 当该单位上场并存活时，我方击杀敌人时掉落装备或身心的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率略微上涨X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-3. 在本章节中每存在一回合，便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少X点最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。当死亡时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>损失X%的金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（C）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>血钱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法+中排+输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 该单位获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%的额外生命窃取属性</t>
@@ -2151,7 +2131,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）
@@ -2162,7 +2141,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>窃取了X点生命值</t>
@@ -2172,7 +2150,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>后，获得</t>
@@ -2182,7 +2159,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X枚金币</t>
@@ -2192,7 +2168,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）
@@ -2203,7 +2178,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>50%</t>
@@ -2213,25 +2187,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会转化为魔法强度。（B）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BD思路：
 1. 将血量保持在不会被秒杀的水平，叠高角色的生命窃取属性便可既有生存又有刷钱能力，生命回复会因为特性存在较低，但是会提供不错的输出，放在能承受一定伤害的中排边打边吸最合适。
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>腐败瘴气</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 每当</t>
     </r>
     <r>
@@ -2239,7 +2215,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>所有敌人回复的生命值</t>
@@ -2249,7 +2224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>达到该单位</t>
@@ -2259,7 +2233,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最大生命值的X%</t>
@@ -2269,7 +2242,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时，触发一次以该单位为中心</t>
@@ -2279,7 +2251,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5*5范围</t>
@@ -2289,7 +2260,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>内的“瘴气传播”，被该技能影响到的敌人</t>
@@ -2298,7 +2268,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>每回合最多只能</t>
@@ -2308,7 +2277,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>移动1格</t>
@@ -2318,7 +2286,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，受到的</t>
@@ -2327,7 +2294,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害</t>
@@ -2337,7 +2303,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高25%</t>
@@ -2347,7 +2312,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，且会被</t>
@@ -2357,7 +2321,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>禁疗X回合</t>
@@ -2367,29 +2330,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD思路：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1. 两种选择，一是做传统肉盾，提高最大生命值和抗性。
 2. 减少最大生命值，力求触发更多次数的特性以让敌人全程禁疗。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>送葬之钟*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 随我远去：上场后，每经过</t>
     </r>
     <r>
@@ -2397,7 +2358,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X个回合</t>
@@ -2407,7 +2367,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，会对</t>
@@ -2417,7 +2376,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>生命值最低的X名敌人</t>
@@ -2427,7 +2385,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>造成一次</t>
@@ -2437,7 +2394,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>高倍率的物理伤害,</t>
@@ -2447,7 +2403,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>每击杀一名敌人，下一次触发这个特性的回合数便会</t>
@@ -2457,7 +2412,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少1回合</t>
@@ -2466,7 +2420,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，最少1回合</t>
@@ -2476,7 +2429,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）
@@ -2487,7 +2439,6 @@
         <sz val="11"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X%最大生命值</t>
@@ -2497,154 +2448,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，下一次触发“随我远去”的回合数+1。（C）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
 1. 极致暴力的战场收割机，堆高物理强度保证爆发，提高最大生命值和攻击距离保证被动不被影响技能释放和不被秒杀。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.获得额外的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>护甲槽位，但是最大生命值会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>降低20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（B）
-2.初始拥有并必须装备一个“军旗”武器(一种无法攻击，但会提供持续BUFF的武器)，为最大生命值最低的一名友军提供防御强度加成buff。(A)
-3.当正在为友军提供BUFF时，会获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%的最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（B）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合使随机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌人损失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大生命值。（A）
-2.每当一名友方单位即将阵亡时，镇魂歌者会令其保留1点生命值（仅一次）。（A）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2669,7 +2496,157 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2678,53 +2655,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="5"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC0504D"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2733,24 +2692,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2773,9 +2918,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2807,29 +3194,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFC0504D"/>
+      <color rgb="00C0504D"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3116,44 +3547,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.12962962962963" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.8796296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.62962962962963" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="75.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.62962962962963" style="3" customWidth="1"/>
+    <col min="7" max="7" width="75.6296296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.62962962962963" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.1296296296296" style="3" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3"/>
+    <col min="12" max="12" width="8.87962962962963" style="3"/>
     <col min="13" max="13" width="28.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="3"/>
-    <col min="15" max="15" width="18.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="3"/>
-    <col min="17" max="17" width="60.625" customWidth="1"/>
-    <col min="18" max="26" width="8.875" style="3"/>
-    <col min="27" max="27" width="14.375" style="3"/>
-    <col min="28" max="16384" width="8.875" style="3"/>
+    <col min="14" max="14" width="8.87962962962963" style="3"/>
+    <col min="15" max="15" width="18.6296296296296" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.87962962962963" style="3"/>
+    <col min="17" max="17" width="60.6296296296296" customWidth="1"/>
+    <col min="18" max="26" width="8.87962962962963" style="3"/>
+    <col min="27" max="27" width="14.3796296296296" style="3"/>
+    <col min="28" max="16384" width="8.87962962962963" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="71.1" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:18">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3262,7 +3694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="46.8" spans="1:18">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3315,7 +3747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="46.8" spans="1:18">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3368,7 +3800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="46.8" spans="1:18">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3421,7 +3853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="46.8" spans="1:18">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3474,7 +3906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" ht="46.8" spans="1:18">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3527,7 +3959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="46.8" spans="1:18">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3580,7 +4012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="46.8" spans="1:18">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3633,7 +4065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="46.8" spans="1:17">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3686,7 +4118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="80.1" customHeight="1" spans="1:17">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3739,7 +4171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="80.1" customHeight="1" spans="1:17">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3792,7 +4224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="80.1" customHeight="1" spans="1:17">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3845,7 +4277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="80.1" customHeight="1" spans="1:17">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3898,7 +4330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="80.1" customHeight="1" spans="1:17">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3918,7 +4350,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
@@ -3930,13 +4362,13 @@
         <v>73</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>73</v>
@@ -3948,18 +4380,18 @@
         <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="80.1" customHeight="1" spans="1:17">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>98</v>
@@ -3971,7 +4403,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -4001,18 +4433,18 @@
         <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="80.1" customHeight="1" spans="1:17">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>69</v>
@@ -4024,7 +4456,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -4054,18 +4486,18 @@
         <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="80.1" customHeight="1" spans="1:17">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>69</v>
@@ -4077,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
@@ -4107,18 +4539,18 @@
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="80.1" customHeight="1" spans="1:17">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>69</v>
@@ -4130,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -4160,68 +4592,68 @@
         <v>23</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="80.1" customHeight="1" spans="1:17">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="80.1" customHeight="1" spans="1:17">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>127</v>
@@ -4230,775 +4662,775 @@
         <v>69</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
-    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="80.1" customHeight="1" spans="1:17">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="80.1" customHeight="1" spans="1:17">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" ht="80.1" customHeight="1" spans="1:17">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="C24" s="10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="80.1" customHeight="1" spans="1:17">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="80.1" customHeight="1" spans="1:17">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H26" s="3">
         <v>4</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="80.1" customHeight="1" spans="1:17">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="80.1" customHeight="1" spans="1:17">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="80.1" customHeight="1" spans="1:17">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="80.1" customHeight="1" spans="1:17">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="80.1" customHeight="1" spans="1:17">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="80.1" customHeight="1" spans="1:17">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="80.1" customHeight="1" spans="1:17">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="80.1" customHeight="1" spans="1:17">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="80.1" customHeight="1" spans="1:17">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="80.1" customHeight="1" spans="1:17">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="80.1" customHeight="1" spans="1:17">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="80.1" customHeight="1" spans="1:17">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="80.1" customHeight="1" spans="1:17">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="80.1" customHeight="1" spans="1:17">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="80.1" customHeight="1" spans="1:17">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="80.1" customHeight="1" spans="1:17">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="80.1" customHeight="1" spans="1:17">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="80.1" customHeight="1" spans="1:17">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="80.1" customHeight="1" spans="1:17">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="80.1" customHeight="1" spans="1:17">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="80.1" customHeight="1" spans="1:17">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="80.1" customHeight="1" spans="1:17">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="80.1" customHeight="1" spans="1:17">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="80.1" customHeight="1" spans="1:17">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C1AF8E-7135-4632-B0F5-85355EB56A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA7C168-86F5-4744-A231-E0962DE08FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -1036,52 +1036,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大生命值X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的魔法伤害。除此之外钩吻还会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得永久的X%点魔法强度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（S）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[B,B,A,B]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2389,122 +2343,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. 随我远去：上场后，每经过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X个回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，会对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生命值最低的X名敌人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高倍率的物理伤害,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每击杀一名敌人，下一次触发这个特性的回合数便会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少1回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，最少1回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（S）
-2. 每损失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，下一次触发“随我远去”的回合数+1。（C）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>BD思路：
 1. 极致暴力的战场收割机，堆高物理强度保证爆发，提高最大生命值和攻击距离保证被动不被影响技能释放和不被秒杀。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2637,6 +2475,951 @@
       <t>最大生命值。（A）
 2.每当一名友方单位即将阵亡时，镇魂歌者会令其保留1点生命值（仅一次）。（A）</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.被钩吻击杀的敌人会引发爆炸，在3*3范围内造成该角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的魔法伤害。
+除此之外钩吻还会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得永久的X%点魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0,0]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消逝弥撒亚*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 该单位固定持有一把极为强大的武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[弥留与终焉]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并且无法装备其他任何装备。（S）
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[弥留与终焉]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一把输出极高，在击杀敌人后会获得巨额回复，并且能提高击杀奖励的强大武器，这个武器只能被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[消逝弥撒亚]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备，且无法脱下和出售。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+2. 根据章节回合数量，该单位会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合减少X%最大生命值，最低20%，并在章节结束后永久无法使用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（D）
+3. 该单位被击杀后会清除场上所有友方单位的负面状态，同时回复其当前的最大生命值。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 极为强大的救场型角色，有着极低的刷新概率，并且只能在一章内使用，虽然他还会随着时间推移越发脆弱，但这并不影响只要拥有他在这一章可以说稳定过关，是非常考验启用时机的最后王牌。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随我远去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：上场后，每经过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，会对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值最低的X名敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高倍率的物理伤害,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每击杀一名敌人，下一次触发这个特性的回合数便会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少1回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最少1回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（S）
+2. 每损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，下一次触发“随我远去”的回合数+1。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+中排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 极客思路！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当该单位装备了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品质≤2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的装备，并战斗了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，
+他会将装备改造为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品质≥3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机同类装备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最大生命值加成。（S）
+2. 该单位每装备一件品质≤2的装备，便会获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的防御强度。（A）
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 发明天才不堪重负</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：该单位每装备一件装备，每回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可移动的距离都会-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 前期过渡的神级角色，在前期获得，并保证其存活可以在游戏中期获得非常好的装备碾压效果，本身坦度不算低，足以支撑起前排副坦克的职责。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒熔炉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+前排+坦克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A.B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,A,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 标准的前期过渡坦克，可以转化较为无用的装备，化腐朽为神奇，但也有后期利用满层特性可以使用的流派，例如反伤流，自暴流等。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重铸与锻造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3件品质≥3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的装备拖在该单位上，这些装备会直接消失并产生一件随机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品质为4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的特殊装备，这些特殊装备都拥有非常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强大的特性和巨大的代价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且不可出售，最多制造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当制造数量达到最大值时该单位获得额外效果。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当锻造的特殊装备数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到达最大数量时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，该单位造成的所有伤害转化为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虔诚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“锡罐”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘鸟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+半肉战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次受到攻击时会增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点防御强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最多拥有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>披荆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当承受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击后，该单位会进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>披荆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态，受到攻击时反伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御强度*X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的魔法伤害。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斩棘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：反弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害后，对以自身为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5*5范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内进行一次斩击，造成巨额的X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有叠加的防御强度。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 多形态切换的半肉轻装战士，合理利用移速优势与敌人拉扯并在人群之中释放特性第三形态斩击，再撤回中排完成combo。
+2. 堆高生存保证combo完成即可，前期因为非常可观的斩击伤害可以频繁使用，到达后期可以更换更强的角色。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3124,9 +3907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3137,7 +3920,7 @@
     <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="75.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="100.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
@@ -3918,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
@@ -3971,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -4024,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -4130,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -4183,7 +4966,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
@@ -4221,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>127</v>
@@ -4236,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4254,7 +5037,7 @@
         <v>123</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>123</v>
@@ -4266,7 +5049,7 @@
         <v>123</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4274,10 +5057,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>69</v>
@@ -4289,13 +5072,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>123</v>
@@ -4307,7 +5090,7 @@
         <v>123</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>123</v>
@@ -4319,7 +5102,7 @@
         <v>123</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4327,40 +5110,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>123</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="M23" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>121</v>
@@ -4372,7 +5155,7 @@
         <v>123</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4380,40 +5163,40 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>123</v>
@@ -4425,7 +5208,7 @@
         <v>123</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4433,34 +5216,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>123</v>
@@ -4478,7 +5261,7 @@
         <v>123</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4486,13 +5269,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>119</v>
@@ -4501,7 +5284,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="3">
         <v>4</v>
@@ -4519,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>122</v>
@@ -4531,7 +5314,7 @@
         <v>123</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4539,22 +5322,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
@@ -4566,13 +5349,13 @@
         <v>123</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>123</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>123</v>
@@ -4584,7 +5367,7 @@
         <v>123</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4592,22 +5375,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
@@ -4619,13 +5402,13 @@
         <v>123</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>123</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>123</v>
@@ -4637,7 +5420,7 @@
         <v>123</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4645,13 +5428,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>119</v>
@@ -4660,13 +5443,13 @@
         <v>3</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>123</v>
@@ -4678,7 +5461,7 @@
         <v>123</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>123</v>
@@ -4690,7 +5473,7 @@
         <v>123</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4698,13 +5481,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>119</v>
@@ -4713,7 +5496,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
@@ -4722,7 +5505,7 @@
         <v>122</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>122</v>
@@ -4731,7 +5514,7 @@
         <v>123</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>123</v>
@@ -4743,7 +5526,7 @@
         <v>123</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4751,28 +5534,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>123</v>
@@ -4784,7 +5567,7 @@
         <v>123</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>123</v>
@@ -4796,7 +5579,7 @@
         <v>123</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4804,13 +5587,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>119</v>
@@ -4819,13 +5602,13 @@
         <v>4</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>123</v>
@@ -4837,7 +5620,7 @@
         <v>123</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>121</v>
@@ -4849,39 +5632,219 @@
         <v>123</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
+      <c r="B33" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q33" s="9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
+      <c r="B34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q34" s="9" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
+      <c r="B35" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="Q35" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
+      <c r="B36" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="Q36" s="9" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4889,7 +5852,7 @@
         <v>36</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4897,7 +5860,7 @@
         <v>37</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4905,7 +5868,7 @@
         <v>38</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4913,7 +5876,7 @@
         <v>39</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4921,7 +5884,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4929,7 +5892,7 @@
         <v>41</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4937,7 +5900,7 @@
         <v>42</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4945,7 +5908,7 @@
         <v>43</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4953,7 +5916,7 @@
         <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4961,7 +5924,7 @@
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,7 +5932,7 @@
         <v>46</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4977,7 +5940,7 @@
         <v>47</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4985,7 +5948,7 @@
         <v>48</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4993,7 +5956,7 @@
         <v>49</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA7C168-86F5-4744-A231-E0962DE08FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09876612-DC61-438C-B4AF-9561308F7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -180,73 +180,6 @@
     <t>[2,1,1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理强度的防御强度(A)
-2.装备近战武器，攻击有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率再次攻击一次(A)
-3.装备饰品[剑魂]时，使用长剑武器攻击额外造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯粹伤害(B)</t>
-    </r>
-  </si>
-  <si>
     <t>[A,B]</t>
   </si>
   <si>
@@ -468,36 +401,6 @@
   </si>
   <si>
     <t>[1,2,1]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外防御强度加成(S)
-2.无法获得移速，移速将保持在1点(B)</t>
-    </r>
   </si>
   <si>
     <t>[B,B,B,A]</t>
@@ -3420,6 +3323,93 @@
     <t>BD思路：
 1. 多形态切换的半肉轻装战士，合理利用移速优势与敌人拉扯并在人群之中释放特性第三形态斩击，再撤回中排完成combo。
 2. 堆高生存保证combo完成即可，前期因为非常可观的斩击伤害可以频繁使用，到达后期可以更换更强的角色。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外防御强度加成(S)
+2.无法获得移速，移速将保持在1点(C)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度的防御强度(A)
+2.装备近战武器，攻击有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率再次攻击一次(A)
+3.装备饰品[剑魂]时，使用长剑武器攻击额外造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯粹伤害(B)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3562,7 +3552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3595,6 +3585,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3907,9 +3900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4008,41 +4001,41 @@
       <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
+      <c r="G2" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="H2" s="6">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
@@ -4050,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -4062,40 +4055,40 @@
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="7">
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
@@ -4103,7 +4096,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -4115,40 +4108,40 @@
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3">
         <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
@@ -4156,10 +4149,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -4168,40 +4161,40 @@
         <v>3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
@@ -4209,52 +4202,52 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" s="2">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.15">
@@ -4262,52 +4255,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="3">
         <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
@@ -4315,52 +4308,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
@@ -4368,52 +4361,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
@@ -4421,52 +4414,52 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="N10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4474,13 +4467,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
@@ -4489,37 +4482,37 @@
         <v>4</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4527,52 +4520,52 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4580,52 +4573,52 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3">
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4633,52 +4626,52 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4686,52 +4679,52 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4739,13 +4732,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -4754,37 +4747,37 @@
         <v>5</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4792,13 +4785,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -4807,37 +4800,37 @@
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4845,52 +4838,52 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4898,52 +4891,52 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4951,52 +4944,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5004,52 +4997,52 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5057,52 +5050,52 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,52 +5103,52 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5163,52 +5156,52 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5216,52 +5209,52 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5269,52 +5262,52 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H26" s="3">
         <v>4</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5322,52 +5315,52 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5375,52 +5368,52 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5428,52 +5421,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5481,52 +5474,52 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5534,52 +5527,52 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5587,52 +5580,52 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="Q32" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5640,52 +5633,52 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H33" s="3">
         <v>5</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5693,52 +5686,52 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F34" s="3">
         <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="N34" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5746,52 +5739,52 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5799,52 +5792,52 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F36" s="3">
         <v>6</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H36" s="3">
         <v>3</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5852,7 +5845,7 @@
         <v>36</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5860,7 +5853,7 @@
         <v>37</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5868,7 +5861,7 @@
         <v>38</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5876,7 +5869,7 @@
         <v>39</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5884,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5892,7 +5885,7 @@
         <v>41</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5900,7 +5893,7 @@
         <v>42</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5908,7 +5901,7 @@
         <v>43</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5916,7 +5909,7 @@
         <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5924,7 +5917,7 @@
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5932,7 +5925,7 @@
         <v>46</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5940,7 +5933,7 @@
         <v>47</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5948,7 +5941,7 @@
         <v>48</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5956,7 +5949,7 @@
         <v>49</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09876612-DC61-438C-B4AF-9561308F7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A94FE4-3659-4086-AD9B-2B052C09FE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -347,36 +347,6 @@
     <t>物理+中排+输出</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.使用远程武器时，获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暴击率加成(A)
-2.在移动阶段就可以进行攻击，但是移动时造成伤害-10%(B)</t>
-    </r>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -3409,6 +3379,31 @@
         <charset val="134"/>
       </rPr>
       <t>纯粹伤害(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.使用远程武器时，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击率加成(A)
+2.在移动阶段就可以进行攻击，但是移动时造成伤害-10%(B)</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3902,7 +3897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4002,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="6">
         <v>3</v>
@@ -4160,8 +4155,8 @@
       <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
+      <c r="G5" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
@@ -4176,22 +4171,22 @@
         <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>26</v>
@@ -4202,19 +4197,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -4232,7 +4227,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
@@ -4244,7 +4239,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>26</v>
@@ -4255,19 +4250,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="3">
         <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -4285,7 +4280,7 @@
         <v>22</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>22</v>
@@ -4294,10 +4289,10 @@
         <v>24</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>26</v>
@@ -4308,19 +4303,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -4338,7 +4333,7 @@
         <v>22</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>22</v>
@@ -4350,7 +4345,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>26</v>
@@ -4361,19 +4356,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -4391,7 +4386,7 @@
         <v>22</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>22</v>
@@ -4403,7 +4398,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>26</v>
@@ -4414,52 +4409,52 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4467,13 +4462,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
@@ -4482,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -4500,7 +4495,7 @@
         <v>22</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>22</v>
@@ -4512,7 +4507,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4520,28 +4515,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>22</v>
@@ -4553,10 +4548,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>24</v>
@@ -4565,7 +4560,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4573,37 +4568,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="3">
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>34</v>
@@ -4612,13 +4607,13 @@
         <v>22</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4626,22 +4621,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -4659,19 +4654,19 @@
         <v>22</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4679,22 +4674,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
@@ -4703,19 +4698,19 @@
         <v>21</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>24</v>
@@ -4724,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4732,13 +4727,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -4747,7 +4742,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -4759,25 +4754,25 @@
         <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4785,13 +4780,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -4800,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -4818,19 +4813,19 @@
         <v>22</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4838,22 +4833,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
@@ -4868,22 +4863,22 @@
         <v>24</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4891,22 +4886,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -4924,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>22</v>
@@ -4936,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4944,52 +4939,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="N20" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q20" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4997,52 +4992,52 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="K21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5050,52 +5045,52 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="O22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5103,52 +5098,52 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="M23" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="P23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P23" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5156,52 +5151,52 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q24" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5209,52 +5204,52 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5262,52 +5257,52 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H26" s="3">
         <v>4</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="K26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5315,52 +5310,52 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="K27" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q27" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5368,52 +5363,52 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="K28" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q28" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5421,52 +5416,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5474,52 +5469,52 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>186</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="10" t="s">
+      <c r="M30" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="O30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P30" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q30" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5527,52 +5522,52 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M31" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P31" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q31" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5580,52 +5575,52 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M32" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="P32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P32" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q32" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5633,52 +5628,52 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>5</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="10" t="s">
+      <c r="N33" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="O33" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5686,52 +5681,52 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="3">
         <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="N34" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P34" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="Q34" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5739,52 +5734,52 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="10" t="s">
+      <c r="N35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="10" t="s">
+      <c r="O35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q35" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5792,52 +5787,52 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>215</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="3">
         <v>6</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H36" s="3">
         <v>3</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="K36" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="M36" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5845,7 +5840,7 @@
         <v>36</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5853,7 +5848,7 @@
         <v>37</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5861,7 +5856,7 @@
         <v>38</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5869,7 +5864,7 @@
         <v>39</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5877,7 +5872,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5885,7 +5880,7 @@
         <v>41</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5893,7 +5888,7 @@
         <v>42</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5901,7 +5896,7 @@
         <v>43</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5909,7 +5904,7 @@
         <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5917,7 +5912,7 @@
         <v>45</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5925,7 +5920,7 @@
         <v>46</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5933,7 +5928,7 @@
         <v>47</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5941,7 +5936,7 @@
         <v>48</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5949,7 +5944,7 @@
         <v>49</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A94FE4-3659-4086-AD9B-2B052C09FE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98F96A-70D3-435E-AF00-C09998004ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -2653,195 +2653,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 极客思路！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：当该单位装备了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>品质≤2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的装备，并战斗了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，
-他会将装备改造为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>品质≥3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机同类装备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的最大生命值加成。（S）
-2. 该单位每装备一件品质≤2的装备，便会获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的防御强度。（A）
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 发明天才不堪重负</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：该单位每装备一件装备，每回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可移动的距离都会-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（D）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>BD思路：
 1. 前期过渡的神级角色，在前期获得，并保证其存活可以在游戏中期获得非常好的装备碾压效果，本身坦度不算低，足以支撑起前排副坦克的职责。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3039,254 +2850,6 @@
   </si>
   <si>
     <t>魔法+前排+半肉战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生刺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：每次受到攻击时会增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X点防御强度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，最多拥有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X层</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。（A）
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>披荆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：当承受</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击后，该单位会进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>披荆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态，受到攻击时反伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>防御强度*X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的魔法伤害。（A）
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>斩棘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：反弹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伤害后，对以自身为中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5*5范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内进行一次斩击，造成巨额的X点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有叠加的防御强度。(A)</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3405,6 +2968,1495 @@
       <t>暴击率加成(A)
 2.在移动阶段就可以进行攻击，但是移动时造成伤害-10%(B)</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 极客思路！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当该单位装备了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品质≤2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的装备，并战斗了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，
+他会将装备改造为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品质≥3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机同类装备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最大生命值加成。（S）
+2. 该单位每装备一件品质≤2的装备，便会获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的防御强度。（A）
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 发明天才不堪重负</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：迅捷值固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+坦克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 无法被治疗，但是拥有非常高的生命回复数值。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜龙：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当该单位受到致命攻击时会潜入地下，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾，在一回合后如果没有被击杀，便会以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满血状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重返战场。（S）
+3. 每次触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，该单位会永久损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最大生命值，但会增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点物理强度。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 拥有恐怖的坦度，且能够适时避战避免死亡，但自身坦度会随着死亡次数越来越低。
+2. 如果需要的话，甚至可以故意多次死亡来将该角色转化为玻璃大炮。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜沙游龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏尔甘的火种</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+后排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次受到攻击时会增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点防御强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最多拥有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>披荆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当承受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击后，该单位会进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>披荆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态，受到攻击时反伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御强度*X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的魔法伤害。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斩棘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：反弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害后，对以自身为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5*5范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内进行一次斩击，造成巨额的X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有叠加的防御强度，并重新回到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 随着时间推移逐渐变强的后排输出，15层为质变，此时也进入到了章节某期，所以尽量早些登场并让他存活到质变开始输出。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝固时光</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+半肉战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 凝时者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，该单位便会和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前的状态做对比，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前血量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前血量更低，则会回到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前的状态并解除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负面状态。（S）
+2. 每回到过去一次，该单位的魔法技艺都会得到进一步加强，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度。（A）
+3. 但是每回到一次过去该单位的身体都会变得更加虚弱，会失去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 有着特殊自保能力的单位，因为特性的存在只要不被秒杀就可以随时保持在相对健康的状态去对抗敌人，随着游戏进度的进行可以通过血量控制其保持半肉战士定位或培养成魔法输出的刺客。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">每一回合，该单位都会给自己叠加一层“锻火”标记。（B）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>融淬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：根据锻火标记数量，该单位会获得不同等级的加成，它们分别是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 7层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：将自己的一件武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品质提升1级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次攻击会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外攻击一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16层后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每有一层获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中率。（S）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不休舞者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>色欲之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+中排+输出/辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B,A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 强调持续移动和行动路线规划的角色，必须保证在迅捷值归0前找到合适的位置结束行动，具有一定的成长性，所以保证生存持续获得特性BUFF是主流打法。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 该单位的移动速度固定在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且永远不会被改变。（A）
+2. 每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>持续移动X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，便会每回合获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%虔诚强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加成，如果某个回合停止了移动便会重新开始计算并失去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值。（A）
+3. 每一回合结束所有行动（迅捷值归0）时会对周围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的友军产生一次基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本回合总移动格子数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的治疗效果。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+后排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放血疫医</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力求均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当队友收到致死伤害时，该单位会抽出其余所有队友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值的20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来令其不会死亡并回到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%最大生命值状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，冷却</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">回合。（S）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壮烈牺牲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：该单位每获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负面状态，便会增强自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的治疗效果。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意外传播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当该单位生命值低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，会释放一次不分敌我的瘟疫冲击，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法伤害。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 挽救关键C位的辅助角色，但带来的负面效果同样巨大，如果奶量跟不上会容易导致队友持续死亡全盘崩溃的局面，所以最好搭配一个强奶量辅助使用。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3895,9 +4947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3997,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="6">
         <v>3</v>
@@ -4156,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
@@ -4209,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -5681,7 +6733,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>203</v>
@@ -5696,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -5710,8 +6762,8 @@
       <c r="K34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>120</v>
+      <c r="L34" s="10">
+        <v>1</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>121</v>
@@ -5726,7 +6778,7 @@
         <v>120</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5734,10 +6786,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>154</v>
@@ -5749,13 +6801,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>120</v>
@@ -5767,7 +6819,7 @@
         <v>120</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>120</v>
@@ -5779,7 +6831,7 @@
         <v>120</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5787,10 +6839,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>154</v>
@@ -5802,7 +6854,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H36" s="3">
         <v>3</v>
@@ -5832,47 +6884,272 @@
         <v>140</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
+      <c r="B37" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="Q37" s="9" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
+      <c r="B38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="Q38" s="9" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
+      <c r="B39" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="Q39" s="9" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
+      <c r="B40" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>251</v>
+      </c>
       <c r="Q40" s="9" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
+      <c r="B41" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="Q41" s="9" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98F96A-70D3-435E-AF00-C09998004ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC65AC-15A8-43F3-BCA7-416D65C43E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="272">
   <si>
     <t>ID</t>
   </si>
@@ -4241,10 +4241,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>放血疫医</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -4457,6 +4453,175 @@
   <si>
     <t>BD思路：
 1. 挽救关键C位的辅助角色，但带来的负面效果同样巨大，如果奶量跟不上会容易导致队友持续死亡全盘崩溃的局面，所以最好搭配一个强奶量辅助使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱物疫医</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+半肉战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任拳大师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 当该单位装备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[拳套]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 类武器后，该单位的攻击速度固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">回合 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">次，且攻击范围变为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. 当该单位装备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[拳套]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 类武器后，伤害倍率 * 1.5。（A）
+3. 该单位暴击率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会转化为命中率。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4948,8 +5113,8 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7104,7 +7269,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>254</v>
@@ -7119,25 +7284,25 @@
         <v>6</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H41" s="3">
         <v>3</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>248</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>248</v>
@@ -7149,15 +7314,60 @@
         <v>248</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
+      <c r="B42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="Q42" s="9" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC65AC-15A8-43F3-BCA7-416D65C43E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B87963-EC8E-4F1D-819E-DAF7EB506296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -4237,10 +4237,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>暴虐之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -4472,7 +4468,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>任拳大师</t>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁拳大师</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4578,7 +4595,27 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 类武器后，伤害倍率 * 1.5。（A）
+      <t xml:space="preserve"> 类武器后，伤害倍率 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
 3. 该单位暴击率的</t>
     </r>
     <r>
@@ -4601,27 +4638,6 @@
       </rPr>
       <t>会转化为命中率。（B）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B,B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD思路：
-1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5110,11 +5126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7269,13 +7285,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>245</v>
@@ -7284,25 +7300,25 @@
         <v>6</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H41" s="3">
         <v>3</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>248</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>248</v>
@@ -7314,7 +7330,7 @@
         <v>248</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -7322,52 +7338,52 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="F42" s="3">
         <v>5</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H42" s="3">
         <v>3</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="N42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q42" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q42" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -7431,6 +7447,246 @@
         <v>49</v>
       </c>
       <c r="Q50" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="Q74" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="9" t="s">
         <v>190</v>
       </c>
     </row>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B87963-EC8E-4F1D-819E-DAF7EB506296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7434E-9C42-4597-A286-AC2947E3043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备槽位标准为4个槽位，每个部位不能超过3个最大值
@@ -44,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>需要设计师对特性进行等级划分，分为SABC，其中消耗：S(5),A(2),B(1),C(-1),D(-3)
@@ -58,6 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>这里只是定性，标定特性是什么，以及特性的等级，其中用可改变变量特殊表示出来，后续可以根据特性等级来整体调整数值</t>
@@ -70,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>属性方面全部不填具体属性，全部填等级：
@@ -98,6 +102,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示该设计是否确定在游戏中使用，分为3个状态：
@@ -112,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="383">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.获得魔法强度时，将获得加值</t>
@@ -220,6 +226,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -229,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的物理强度(A)
@@ -239,6 +247,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -248,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的魔法强度(A)
@@ -258,6 +268,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>50%</t>
@@ -267,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>转换为护盾值(B)</t>
@@ -289,6 +301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用大剑武器时，获得</t>
@@ -298,6 +311,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>80%</t>
@@ -307,6 +321,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害加成(S)
@@ -317,6 +332,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -326,6 +342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理强度得生命窃取属性(A)
@@ -395,6 +412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用骑枪武器时，会在移动阶段对移动路径上的敌人造成一次伤害(不计入本次伤害中)(S)
@@ -405,6 +423,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -414,6 +433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>加成，可叠加(A)</t>
@@ -438,6 +458,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.额外获得一个饰品槽位(A)
@@ -449,6 +470,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -458,6 +480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的护盾值(A)</t>
@@ -507,6 +530,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.被放置后永远无法主动或被动位移。（B）
@@ -518,6 +542,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>概率可参</t>
@@ -527,6 +552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的事件（神迹）。(S)</t>
@@ -561,6 +587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>弥达斯（Midas）
@@ -579,6 +606,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.基础属性较低，但会</t>
@@ -588,6 +616,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>根据玩家当前的金币数量而获得增强</t>
@@ -597,6 +626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）
@@ -621,55 +651,6 @@
     <t>傲慢之章</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.装备[乐器]类武器后，伤害类型由魔法转化为虔诚。（S）
-2.在参与击杀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等级小于等于该单位的敌人后，攻击会使</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌人击退一格。（B）
-3.装备[乐器]类武器后被控制时会大幅降低伤害。（D）</t>
-    </r>
-  </si>
-  <si>
     <t>[C,B]</t>
   </si>
   <si>
@@ -694,56 +675,6 @@
     <t>[3,0,1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.在玩家选择移动策略时无法向后移动。（D）
-2.在爆炸后将被炸退</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（C）
-3.与怪物接触时将以自身为中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3*3范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内爆炸，造成极高倍率的物理伤害。(S)
-4.装备与爆炸相关的武器时，会获得伤害加成。(A)</t>
-    </r>
-  </si>
-  <si>
     <t>[B,C]</t>
   </si>
   <si>
@@ -821,6 +752,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.装备[锁链]类武器后，攻击将会额外攻击一名2格内的敌人。(A)
@@ -832,6 +764,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>25%伤害</t>
@@ -841,6 +774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的攻击（触发特效）。（A）</t>
@@ -949,6 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会直接死亡。（S）
@@ -969,6 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（D）</t>
@@ -998,6 +934,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X点</t>
@@ -1007,6 +944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（A）
@@ -1027,6 +965,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的友军防御强度乘以</t>
@@ -1036,6 +975,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.2倍</t>
@@ -1045,14 +985,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（B）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>影袭</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1804,6 +1741,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.25</t>
@@ -1813,6 +1751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>倍。（C）</t>
@@ -1869,6 +1808,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（A）</t>
@@ -2229,6 +2169,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1个</t>
@@ -2238,6 +2179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>护甲槽位，但是最大生命值会</t>
@@ -2247,6 +2189,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>降低20%</t>
@@ -2256,6 +2199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）
@@ -2277,6 +2221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）</t>
@@ -2697,6 +2642,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：将</t>
@@ -2716,6 +2662,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的装备拖在该单位上，这些装备会直接消失并产生一件随机的</t>
@@ -2735,6 +2682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的特殊装备，这些特殊装备都拥有非常</t>
@@ -2754,6 +2702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，且不可出售，最多制造</t>
@@ -2783,6 +2732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（A）
@@ -2867,6 +2817,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>100%</t>
@@ -2876,6 +2827,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>额外防御强度加成(S)
@@ -2892,6 +2844,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -2901,6 +2854,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理强度的防御强度(A)
@@ -2911,6 +2865,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>15%</t>
@@ -2920,6 +2875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>概率再次攻击一次(A)
@@ -2930,6 +2886,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -2939,6 +2896,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>纯粹伤害(B)</t>
@@ -2954,6 +2912,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -2963,6 +2922,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>暴击率加成(A)
@@ -3846,6 +3806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -4237,6 +4198,394 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>[B,A,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 挽救关键C位的辅助角色，但带来的负面效果同样巨大，如果奶量跟不上会容易导致队友持续死亡全盘崩溃的局面，所以最好搭配一个强奶量辅助使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱物疫医</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+半肉战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁拳大师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 当该单位装备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[拳套]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 类武器后，该单位的攻击速度固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">回合 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">次，且攻击范围变为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. 当该单位装备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[拳套]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 类武器后，伤害倍率 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3. 该单位暴击率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会转化为命中率。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.装备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[乐器]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类武器后，伤害类型由魔法转化为虔诚。（S）
+2.在参与击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等级小于等于该单位的敌人后，攻击会使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人击退一格。（B）
+3.装备[乐器]类武器后被控制时会大幅降低伤害。（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.在玩家选择移动策略时无法向后移动。（D）
+2.在爆炸后将被炸退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）
+3.与怪物接触时将以自身为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内爆炸，造成极高倍率的物理伤害。(S)
+4.装备与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [爆炸]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 相关的武器时，会获得伤害加成。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“代号影”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌袭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 低血量才能触发最大实力的物理近战C位，是利用高暴击率稳扎稳打输出或者巧妙利用特性在刀尖舔血打出高额输出，需要玩家有一定熟练度。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -4255,6 +4604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：当队友收到致死伤害时，该单位会抽出其余所有队友</t>
@@ -4274,6 +4624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>来令其不会死亡并回到</t>
@@ -4293,6 +4644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，冷却</t>
@@ -4312,6 +4664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">回合。（S）
@@ -4325,13 +4678,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>壮烈牺牲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+      <t>壮烈成仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：该单位每获得</t>
@@ -4351,6 +4705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>负面状态，便会增强自己</t>
@@ -4370,6 +4725,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的治疗效果。（A）
@@ -4390,6 +4746,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：当该单位生命值低于</t>
@@ -4409,6 +4766,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时，会释放一次不分敌我的瘟疫冲击，造成</t>
@@ -4428,6 +4786,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>魔法伤害。（C）</t>
@@ -4435,209 +4794,2544 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>闪星</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+坦克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次承受伤害时，扣除的血量最多为最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星噬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，会偷取攻击者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的最大生命值。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湮灭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，攻击者承受的伤害将会提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，不可叠加。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 一个针对于强力高伤敌人的前排坦克，拥有多次承受巨大伤害的独特能力，但是针对伤害偏低的群怪会非常平庸接近白板，适合高难度关卡攻坚使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻甲狂袭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 生命值低于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 时进入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态，攻击必定暴击，造成攻击力 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">150% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的伤害。（A）
+2. 进入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态后，受到的所有生命回复效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减半</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，移动速度 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（B）
+3. 进入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态 后，每回合受到的第一次攻击无效。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：该单位每回合只能进行 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 次攻击，造成 极高攻击力倍率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">） 的虔诚伤害。（S）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴怒的代价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：在使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 后，该单位会无法行动 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 回合。（D）
+3. 当 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 击杀一名敌人时，该单位会获得最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 输出极高的救场型角色，在面对残局时有极强的收割能力，但是在均势中难以发挥实力，容易在空白期被集火秒掉，是一个非常极端的输出爆发点。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行商菇人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+后排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商人的直觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：该单位在场时，商店刷新物品时有更高几率出现更为稀有的物品。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀价行家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：该单位在场时，在商店购买物品时有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">几率用更少的金币购买物品。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练毒成金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：使用 [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] 相关的武器时，每回合会获得一定金币。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>[B,A,B,B]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,A]</t>
+    <t>A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
-1. 挽救关键C位的辅助角色，但带来的负面效果同样巨大，如果奶量跟不上会容易导致队友持续死亡全盘崩溃的局面，所以最好搭配一个强奶量辅助使用。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱物疫医</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+前排+半肉战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴虐之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B,B,B]</t>
+1. 与商店系统挂钩的辅助型角色，在阵容整体发育和养成中起到节省资源和加速成型的作用。
+2. 因为是蘑菇人所以有与毒亲和产出金币的能力，越早上场收益越大。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,3,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.拳师无法装备武器，但能获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度加成(A)
+2.拳师每第三次攻击将附带敌方单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值的物理伤害(B)
+3.拳师的攻击会标记当前敌方单位，每秒获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击率加成，更新标记会清除此加成(A)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
-1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁拳大师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 当该单位装备 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[拳套]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 类武器后，该单位的攻击速度固定为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">回合 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">次，且攻击范围变为 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1*3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。（A）
-2. 当该单位装备 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[拳套]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 类武器后，伤害倍率 * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>150%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-3. 该单位暴击率的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> X% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会转化为命中率。（B）</t>
-    </r>
+1.对付精英和BOSS的强力站桩输出棋子
+2.无法装备武器，攻击型饰品的优先级提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾使</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+肉盾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.圣盾使无法装备武器，转而使用盾牌进行挥击，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御强度的魔法伤害(A)
+2.圣盾使每10s获得最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾，持续5s，在护盾的保护下每秒恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值(B)
+3.圣盾使的护盾效率提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.找高抗性装备
+2.优先提高护盾效率和生命恢复的饰品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>割裂者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.割裂者的攻击分为三段式：1)砍:割裂者对面前一格的单位造成一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害。2)刺:割裂者对前方一行两格的单位造成一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害。3)挥:割裂者对前方一列三格的单位造成两段各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害(S)
+2.割裂者的攻击会有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的概率使敌方单位流血：每秒损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值，此效果可以叠加三层(A)
+3.割裂者会获得敌方单位流血伤害的等值生命恢复(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.找面板高攻击力的武器
+2.近战打群怪效率很高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒使者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.凛冬：极寒使者周围5*5格内单位的移动速度降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+2.凛冬范围内每有一个友方单位，极寒使者的伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+3.当极寒使者和熔岩领主同时在场时，凛冬缓移速降低效果翻倍，极寒使者获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的暴击几率，技能伤害可以暴击(X)
+4.极寒使者不能处于熔岩领主的赤炎范围内</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.中排控场单位
+2.和熔岩领主凑成双生羁绊，控图全场并提高伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩领主</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.赤炎：熔岩领主周围5*5格内单位的攻击速度降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+2.凛冬范围内每有一个友方单位，极寒使者的伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+3.当极寒使者和熔岩领主同时在场时，赤炎攻速降低效果翻倍，熔岩领主获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的暴击几率，技能伤害可以暴击(X)
+4.熔岩领主不能处于极寒使者的凛冬范围内</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.中排控场单位
+2.和极寒使者凑成双生羁绊，控图全场并提高伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶舞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.蝶舞每10s向最低百分比生命值的友方单位施加治愈之蝶，受到治愈之蝶的单位获得每秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值恢复效果(B)
+2.蝶舞每10s向最高百分比生命值的敌方单位施加哀伤之蝶(若场上存在2个及以上敌方单位，则哀伤之蝶不会连续标记同一个敌方单位)，友方单位击杀被诅咒的单位可获得激励效果，攻击速度提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，防御提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，激励效果持续10s(A)
+3.若蝶舞自己受到激励，则下一次释放治愈之蝶的目标个数+1(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.优先集火被哀伤之蝶标记的目标来提升实时战力
+2.蝶舞相当脆弱，需要时刻注意蝶舞血量
+3.找增加治疗量的饰品和法术强度的武器来增加蝶舞的治疗量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之祈愿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0,3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.风之祈愿在场时，所有友方单位的技能冷却减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.风之祈愿给予物理强度最高的友方单位提供增益，提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击速度，提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率(B)
+3.风之祈愿希望大家都好好活着，所有友方单位在受到敌方伤害时有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率获得该伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾量(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.风之祈愿搭配技能型远程物理输出和有护盾增益的前排</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑梦师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+中排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.筑梦师会在敌方单位阵亡后收集梦之碎片，提升自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的治疗效果和护盾强度，并将梦之碎片转化成光束给予生命百分百最低的单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度的治疗效果(此条在装备[储梦灯笼]后无效)(A)
+2.装备[储梦灯笼]后筑梦师得到满足增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度，并且会让搜集到的梦之碎片散发梦之光，让周围5*5的单位每秒受到筑梦师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度的治疗效果(A)
+3.受到梦之光照耀的单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到治疗效率和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到护盾效率(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.当有储梦灯笼后，筑梦师将是一个强力的中排群奶单位
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>顷刻狐影</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,1,0]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.顷刻狐影每第四次攻击会旋转他的爪牙使出旋转舞爪，对周围一圈的敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的物理伤害，每有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率，此伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(A)
+2.顷刻狐影每次使用旋转舞爪会增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率，最高叠加至5层，移动后层数清零(B)
+3.顷刻狐影移动后立即触发一次旋转舞爪，攻击速度提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,持续5s(A)
+3.顷刻狐影的暴击可使敌人眩晕1s(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.顷刻狐影站桩输出可打出更高的控制效果
+2.移动后的AOE伤害能打出不错的收割，后续提供的攻速和伤害加成也能快速叠暴击率层数
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热双镰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.狂热双镰每次造成伤害能获得2点狂暴值，暴击获得3点狂暴值，当狂暴值达到50时进入狂暴状态(狂暴状态下造成伤害不获得狂暴值)，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻速提升和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害提升，每秒损失4狂暴值，狂暴值清零时退出狂暴状态(A)
+2.狂暴形态下狂热双镰每次攻击获得5%暴击几率加成，暴击的额外伤害转化成治疗，溢出的暴击率1:1转化为暴击伤害(A)
+3.狂热双镰每装备一把镰刀型武器，增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击率(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.狂热双镰是一个不错的爆伤战士，造成暴击伤害的恢复量也给予了他一定的坦度
+2.镰刀型的武器优先给狂热双镰提升暴击率，以缩短狂暴状态之间的空档期
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>持斧小子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.持斧小子会将受到的伤害储存起来，当足矣造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值的伤害时立刻受到次此伤害，并且触发山崩地裂，对周围3*3范围内所有敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度的伤害，并且获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的减伤(A)
+2.持斧小子每造成8次伤害，会激活自己的战斗狂热，收到的伤害减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且每第三次攻击向前3格进行劈砍，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度的伤害，每损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值，此伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。战斗狂热持续6s(A)
+3.劈砍每名中一名敌方单位会恢复持斧小子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值(B)
+4.持斧小子装备斧类武器才能激活以上技能(C)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.持斧小子仅持有斧头类武器才有相应的特性，所有优先把斧类武器给持斧小子
+2.持斧小子的伤害转化容易使其暴毙，在受到伤害之前将其奶到50%血量以上尤为关键
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触不良的灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0，2，2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.堆高防御。保证生存及提高等级，通过其特性给予己方增益，给敌方伤害及消减
+2.放置在敌方和己方斗争比较多的地方收益大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自画像艺术家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.保证生存,搭配高输出，如果运气好可以攻击被控制的敌方，将会有较大收益
+2.堆高防御和武器得到高输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗落【金鱼草】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.播种：每两个回合诞生一个小金鱼草，一个回合后小金鱼草变成成年金鱼草，诞生的金鱼草血量，攻击，防御继承与母体，其中小金鱼草为母体的1/2，成年金鱼草为母体的1倍（A）
+2.母体死亡后，随机一只成年金鱼草会成为母体，如果没有，则等待小金鱼草成年，然后变成母体，如果都没有，则死亡（A）
+3.玩家只能操控母体，小金鱼草以及成年金鱼草无脑前进攻击敌人。（C）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.范围伤害。接触不良时（灯光不亮时），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5*5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">范围造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点固定物理伤害（闪电），持续 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个回合。（A）
+2. 范围增益。接触正常时（灯光亮），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5*5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">范围为友方恢复X点血量，并在范围内提供 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的攻击力加成，持续 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个回合。（A）
+3.升级加成：升到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">级后，接触不良状态对敌方额外减少 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的移动速度（A）
+4.路灯特性：一旦放置无法移动（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.一个回合只能对一名敌人造成伤害和影响，并且自身没有攻击力（D）
+2.自我怀疑：每一回合随机让一个对手这一回合无法产生任何行动（包括移动，攻击，回复），boss不会限制行动和回复（A）
+3.升级到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">级后，被控制的对手会在本回合攻击自己，精英怪在其范围外一个单位造成伤害，boss为2个单位。攻击伤害为原攻击的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（根据武器加成），（S）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入殓师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>己方buff：降低与死亡，恐惧相关的的负面buff，且存在时会有少量的攻击力增强buff，在其他角色死亡时，额外出现一次百分百暴击的攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌方buff：降低对面一定的攻击防御，减少对面的对自身的增益buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在发挥增益技能的回合，无法攻击和移动，闪避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.纯增益辅助型，较为脆皮，且攻击力低，                                                   2.尽可能存活，打出控场效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>荼姬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1物理+前排+辅助/2 物理+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助2/攻击3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助2/攻击4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助[B,B,C,A]/攻击[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助C/攻击B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.堆砌防具，饰品来保证荼姬的血量及坦度，避免她逃跑，以及利用她不会受到暴击的特性来扛伤
+2.辅助思路，保证存活并且控制关键敌人                                                       3攻击思路，保证存活，堆砌爆发，使用大招收割敌人，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝎尾夫人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术+后排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.传播病毒，存活时，使所有受到过魅惑的敌人每一回合受到一定的额外伤害。所有攻击附带毒效果，持续一定回合（A）
+2.被攻击的敌人，如果处于魅惑状态，触发暴击以及额外增加一定真实伤害。（B）
+3.移动速度是正常值的一半（C）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.适合在队伍阵容有魅惑角色的时候搭配使用。
+2.尽量对被魅惑的角色使用打出暴击以及真实伤害
+3.堆高爆发能力，使其能收割更多敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">虚伪的无私者 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，每次移动结束，留下一个治疗光球，敌人接触到光球后，回一定量的血，叠加标记，然后从下一回合开始，根据标记的叠加，受到一定量的真实伤害，标记根据时间推移减少，至标记消失，攻击停止。（A）
+2，受到控制后，对敌方的标记层数-1；（C）
+3.杀死敌方数量累计到一定数量后，在经过格子上可留下的光球数目变多（A）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,B,A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1,尽可能堆砌防具来保证存活，存活越长就越有利。
+2，堆高伤害可以打持续高额伤害，达到消耗和收割效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.根据玩家色欲罪行会有两个形态，1形态为罪行低的状态，是辅助。2形态是罪行高的状态，是输出，不同的形态有不同的特征和剧情（A）
+2.兔子身型矮小，灵活，存在感不高，所以无法受到暴击，闪避高（A）。              
+ 3.兔子胆小，所以在生命值低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或受到恐吓的时候，会逃跑消失，且cd时间长（D）
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（强）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9（魏）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>46（俊）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>57（琳）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4645,7 +7339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4658,12 +7352,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4676,11 +7372,13 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4706,13 +7404,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4724,8 +7415,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4747,6 +7452,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4780,14 +7497,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4799,22 +7513,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5129,32 +7873,32 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="100.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3"/>
-    <col min="13" max="13" width="28.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="3"/>
-    <col min="15" max="15" width="18.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="3"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="100.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="2"/>
+    <col min="13" max="13" width="28.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="2"/>
+    <col min="15" max="15" width="18.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="2"/>
     <col min="17" max="17" width="60.625" customWidth="1"/>
-    <col min="18" max="26" width="8.875" style="3"/>
-    <col min="27" max="27" width="14.375" style="3"/>
-    <col min="28" max="16384" width="8.875" style="3"/>
+    <col min="18" max="26" width="8.875" style="2"/>
+    <col min="27" max="27" width="14.375" style="2"/>
+    <col min="28" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5167,10 +7911,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5179,7 +7923,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5194,7 +7938,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -5213,2486 +7957,3442 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="13">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="13">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="16">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="15">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="15">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="5" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="15">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="15">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="15">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:18" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="15">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="15">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="15">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="15">
         <v>3</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="G13" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="J14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="K14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15">
+        <v>4</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="15">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="M18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15">
+        <v>3</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="15">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="L19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
+      <c r="M19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="3">
+    <row r="20" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="15">
         <v>3</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="I20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="15">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="15">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="19">
         <v>3</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="15">
+        <v>4</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="15">
+        <v>2</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="15">
+        <v>3</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="15">
+        <v>3</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="15">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="15">
+        <v>4</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="15">
+        <v>3</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="15">
+        <v>4</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="15">
+        <v>5</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="15">
+        <v>4</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="19">
+        <v>1</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="15">
+        <v>4</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" s="15">
+        <v>2</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="15">
+        <v>6</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" s="15">
+        <v>3</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="15">
+        <v>6</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H37" s="15">
+        <v>3</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="15">
+        <v>6</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" s="15">
+        <v>3</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="15">
+        <v>6</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="15">
+        <v>6</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" s="15">
+        <v>5</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="15">
+        <v>6</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H41" s="15">
+        <v>3</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="15">
+        <v>5</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="15">
+        <v>3</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="15">
+        <v>5</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" s="15">
+        <v>5</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="15">
+        <v>6</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H44" s="15">
+        <v>3</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="15">
+        <v>4</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="15">
+        <v>5</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="15">
+        <v>3</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F47" s="8">
+        <v>5</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="K47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
+      <c r="M47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    <row r="48" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" s="15">
+        <v>4</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" s="15">
+        <v>3</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H49" s="15">
+        <v>3</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H50" s="15">
+        <v>2</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="F14" s="3">
+      <c r="B51" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H51" s="15">
+        <v>2</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F52" s="15">
         <v>4</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G52" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" s="15">
+        <v>4</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="15">
+        <v>6</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F55" s="15">
+        <v>6</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" s="15">
+        <v>4</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="15">
+        <v>6</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="H56" s="15">
+        <v>4</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="15">
+        <v>4</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H57" s="15">
+        <v>3</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="10" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F58" s="11">
+        <v>3</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H58" s="11">
         <v>2</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
+      <c r="I58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3">
+    <row r="59" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="16">
+        <v>5</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H59" s="16">
+        <v>3</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="16">
+        <v>3</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H60" s="16">
+        <v>5</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="16">
+        <v>3</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H61" s="16">
+        <v>1</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q62" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G63" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H63" s="16">
         <v>3</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
+      <c r="I63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q63" s="16" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="3">
+    <row r="64" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G64" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H64" s="16">
         <v>3</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="O64" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="P64" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="10">
-        <v>3</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="10">
-        <v>1</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="3">
-        <v>6</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" s="3">
-        <v>3</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="3">
-        <v>6</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="3">
-        <v>3</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="3">
-        <v>6</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38" s="3">
-        <v>3</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="3">
-        <v>6</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39" s="3">
-        <v>3</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H40" s="3">
-        <v>5</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q42" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="Q50" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="Q53" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="Q55" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="Q58" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="Q59" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q61" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="Q63" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>190</v>
+      <c r="Q64" s="16" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="Q65" s="9" t="s">
-        <v>190</v>
+      <c r="Q65" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="Q66" s="9" t="s">
-        <v>190</v>
+      <c r="Q66" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="Q67" s="9" t="s">
-        <v>190</v>
+      <c r="Q67" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="Q68" s="9" t="s">
-        <v>190</v>
+      <c r="Q68" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="Q69" s="9" t="s">
-        <v>190</v>
+      <c r="Q69" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="Q70" s="9" t="s">
-        <v>190</v>
+      <c r="Q70" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="Q71" s="9" t="s">
-        <v>190</v>
+      <c r="Q71" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="Q72" s="9" t="s">
-        <v>190</v>
+      <c r="Q72" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="Q73" s="9" t="s">
-        <v>190</v>
+      <c r="Q73" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="Q74" s="9" t="s">
-        <v>190</v>
+      <c r="Q74" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="Q75" s="9" t="s">
-        <v>190</v>
+      <c r="Q75" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="Q76" s="9" t="s">
-        <v>190</v>
+      <c r="Q76" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="Q77" s="9" t="s">
-        <v>190</v>
+      <c r="Q77" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="Q78" s="9" t="s">
-        <v>190</v>
+      <c r="Q78" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="Q79" s="9" t="s">
-        <v>190</v>
+      <c r="Q79" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="Q80" s="9" t="s">
-        <v>190</v>
+      <c r="Q80" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7434E-9C42-4597-A286-AC2947E3043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B37420-7501-4505-A34C-19490AE01087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1411,10 +1411,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>致命底牌*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[B,B,S,B]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1790,104 +1786,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外获得1~X枚额外金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 当该单位上场并存活时，我方击杀敌人时掉落装备或身心的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率略微上涨X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-3. 在本章节中每存在一回合，便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少X点最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。当死亡时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>损失X%的金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（C）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>血钱</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2352,104 +2250,6 @@
   </si>
   <si>
     <t>消逝弥撒亚*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 该单位固定持有一把极为强大的武器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[弥留与终焉]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并且无法装备其他任何装备。（S）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[弥留与终焉]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一把输出极高，在击杀敌人后会获得巨额回复，并且能提高击杀奖励的强大武器，这个武器只能被</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[消逝弥撒亚]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装备，且无法脱下和出售。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-2. 根据章节回合数量，该单位会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每回合减少X%最大生命值，最低20%，并在章节结束后永久无法使用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（D）
-3. 该单位被击杀后会清除场上所有友方单位的负面状态，同时回复其当前的最大生命值。（A）</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -7332,6 +7132,196 @@
   </si>
   <si>
     <t>57（琳）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的底牌*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外获得1~X枚额外金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+2. 当该单位上场并存活时，我方击杀敌人时掉落装备或职业的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率略微上涨X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3. 在本章节中每存在一回合，便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少X点最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。当死亡时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损失X%的金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 该单位固定持有一把极为强大的武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[弥留与终焉]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并且无法装备其他任何装备。（S）
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[弥留与终焉]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一把输出极高，在击杀敌人后会获得巨额回复，并且能提高击杀奖励的强大武器，这个武器只能被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[消逝弥撒亚]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备，且无法脱下和出售。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+2. 根据章节回合数量，该单位会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合减少X%最大生命值，最低20%，并在章节结束后永久无法使用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（D）
+3. 该单位被击杀后会清除场上自身所有的负面状态，同时回复其当前的最大生命值。（A）</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7543,22 +7533,22 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7873,8 +7863,8 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7959,7 +7949,7 @@
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -7974,7 +7964,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H2" s="13">
         <v>3</v>
@@ -8133,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H5" s="15">
         <v>5</v>
@@ -8186,7 +8176,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H6" s="15">
         <v>2</v>
@@ -8383,7 +8373,7 @@
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>64</v>
@@ -8507,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H12" s="15">
         <v>3</v>
@@ -8560,7 +8550,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H13" s="15">
         <v>3</v>
@@ -8666,7 +8656,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" s="15">
         <v>3</v>
@@ -8719,7 +8709,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" s="15">
         <v>2</v>
@@ -8772,7 +8762,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
@@ -8984,7 +8974,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H21" s="15">
         <v>1</v>
@@ -9075,7 +9065,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>134</v>
@@ -9181,7 +9171,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>152</v>
@@ -9233,8 +9223,8 @@
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>158</v>
+      <c r="B26" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>156</v>
@@ -9267,7 +9257,7 @@
         <v>118</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>137</v>
@@ -9279,7 +9269,7 @@
         <v>118</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9287,22 +9277,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27" s="15">
         <v>2</v>
@@ -9320,7 +9310,7 @@
         <v>118</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N27" s="19" t="s">
         <v>118</v>
@@ -9332,7 +9322,7 @@
         <v>118</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9340,22 +9330,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>144</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="15">
         <v>2</v>
@@ -9367,7 +9357,7 @@
         <v>118</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>118</v>
@@ -9385,7 +9375,7 @@
         <v>118</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9393,10 +9383,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>151</v>
@@ -9407,8 +9397,8 @@
       <c r="F29" s="15">
         <v>3</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>179</v>
+      <c r="G29" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="H29" s="15">
         <v>2</v>
@@ -9426,7 +9416,7 @@
         <v>118</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>118</v>
@@ -9438,7 +9428,7 @@
         <v>118</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9446,13 +9436,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>114</v>
@@ -9461,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H30" s="15">
         <v>2</v>
@@ -9479,7 +9469,7 @@
         <v>118</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>118</v>
@@ -9491,7 +9481,7 @@
         <v>118</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9499,7 +9489,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>152</v>
@@ -9514,7 +9504,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H31" s="15">
         <v>2</v>
@@ -9532,7 +9522,7 @@
         <v>118</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>118</v>
@@ -9544,7 +9534,7 @@
         <v>118</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9552,10 +9542,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>134</v>
+        <v>187</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>143</v>
@@ -9567,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H32" s="15">
         <v>3</v>
@@ -9597,7 +9587,7 @@
         <v>118</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9605,22 +9595,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="15">
         <v>4</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>197</v>
+      <c r="G33" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="H33" s="15">
         <v>5</v>
@@ -9650,7 +9640,7 @@
         <v>118</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9658,10 +9648,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>151</v>
@@ -9673,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H34" s="15">
         <v>1</v>
@@ -9703,7 +9693,7 @@
         <v>118</v>
       </c>
       <c r="Q34" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9711,10 +9701,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>151</v>
@@ -9726,13 +9716,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H35" s="15">
         <v>2</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>118</v>
@@ -9744,7 +9734,7 @@
         <v>118</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>118</v>
@@ -9756,7 +9746,7 @@
         <v>118</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9764,10 +9754,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>151</v>
@@ -9779,7 +9769,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H36" s="15">
         <v>3</v>
@@ -9797,7 +9787,7 @@
         <v>118</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N36" s="19" t="s">
         <v>118</v>
@@ -9809,7 +9799,7 @@
         <v>137</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9817,52 +9807,52 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F37" s="15">
         <v>6</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H37" s="15">
         <v>3</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="K37" s="19" t="s">
+      <c r="N37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q37" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P37" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9870,52 +9860,52 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F38" s="15">
         <v>6</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H38" s="15">
         <v>3</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M38" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q38" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="P38" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9923,52 +9913,52 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F39" s="15">
         <v>6</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H39" s="15">
         <v>3</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9976,52 +9966,52 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>243</v>
-      </c>
       <c r="D40" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F40" s="15">
         <v>6</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H40" s="15">
         <v>5</v>
       </c>
       <c r="I40" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="N40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="P40" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="K40" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" s="19" t="s">
+      <c r="Q40" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="P40" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10029,52 +10019,52 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F41" s="15">
         <v>6</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H41" s="15">
         <v>3</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q41" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="P41" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10082,52 +10072,52 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F42" s="15">
         <v>5</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H42" s="15">
         <v>3</v>
       </c>
       <c r="I42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="N42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q42" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="P42" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10135,52 +10125,52 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F43" s="15">
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H43" s="15">
         <v>5</v>
       </c>
       <c r="I43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="N43" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="O43" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="K43" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="M43" s="19" t="s">
+      <c r="P43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q43" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="O43" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10188,52 +10178,52 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="F44" s="15">
         <v>6</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H44" s="15">
         <v>3</v>
       </c>
       <c r="I44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M44" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="K44" s="15" t="s">
+      <c r="N44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q44" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10241,52 +10231,52 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="F45" s="15">
         <v>4</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H45" s="15">
         <v>5</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M45" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q45" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10294,72 +10284,72 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F46" s="15">
         <v>6</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H46" s="15">
         <v>3</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="8" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F47" s="8">
         <v>5</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H47" s="8">
         <v>2</v>
@@ -10389,7 +10379,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10397,25 +10387,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F48" s="15">
         <v>4</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H48" s="15">
         <v>3</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>22</v>
@@ -10427,7 +10417,7 @@
         <v>22</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>118</v>
@@ -10439,7 +10429,7 @@
         <v>22</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10447,10 +10437,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>114</v>
@@ -10459,7 +10449,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H49" s="15">
         <v>3</v>
@@ -10489,7 +10479,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10497,19 +10487,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>114</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H50" s="15">
         <v>2</v>
@@ -10527,7 +10517,7 @@
         <v>22</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>137</v>
@@ -10539,7 +10529,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10547,19 +10537,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>114</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H51" s="15">
         <v>2</v>
@@ -10577,7 +10567,7 @@
         <v>22</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N51" s="15" t="s">
         <v>137</v>
@@ -10589,7 +10579,7 @@
         <v>22</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10597,19 +10587,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F52" s="15">
         <v>4</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H52" s="15">
         <v>1</v>
@@ -10627,7 +10617,7 @@
         <v>22</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>118</v>
@@ -10639,7 +10629,7 @@
         <v>22</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10647,19 +10637,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F53" s="15">
         <v>4</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H53" s="15">
         <v>1</v>
@@ -10689,7 +10679,7 @@
         <v>22</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10697,10 +10687,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>123</v>
@@ -10709,7 +10699,7 @@
         <v>6</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H54" s="15">
         <v>1</v>
@@ -10727,7 +10717,7 @@
         <v>22</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>118</v>
@@ -10739,7 +10729,7 @@
         <v>22</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10747,19 +10737,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F55" s="15">
         <v>6</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H55" s="15">
         <v>4</v>
@@ -10789,7 +10779,7 @@
         <v>137</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10797,10 +10787,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>114</v>
@@ -10809,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H56" s="15">
         <v>4</v>
@@ -10839,7 +10829,7 @@
         <v>137</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10847,10 +10837,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>144</v>
@@ -10859,13 +10849,13 @@
         <v>4</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H57" s="15">
         <v>3</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>118</v>
@@ -10889,30 +10879,30 @@
         <v>118</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="10" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>151</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F58" s="11">
         <v>3</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H58" s="11">
         <v>2</v>
@@ -10930,7 +10920,7 @@
         <v>118</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>118</v>
@@ -10942,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10950,10 +10940,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>151</v>
@@ -10965,13 +10955,13 @@
         <v>5</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H59" s="16">
         <v>3</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>118</v>
@@ -10995,7 +10985,7 @@
         <v>137</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11003,10 +10993,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>151</v>
@@ -11018,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H60" s="16">
         <v>5</v>
@@ -11036,7 +11026,7 @@
         <v>118</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N60" s="16" t="s">
         <v>118</v>
@@ -11054,10 +11044,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>135</v>
@@ -11069,13 +11059,13 @@
         <v>3</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H61" s="16">
         <v>1</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>118</v>
@@ -11099,7 +11089,7 @@
         <v>118</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11107,31 +11097,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>144</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>130</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>117</v>
@@ -11140,19 +11130,19 @@
         <v>137</v>
       </c>
       <c r="M62" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P62" s="16" t="s">
         <v>118</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11160,13 +11150,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>123</v>
@@ -11175,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H63" s="16">
         <v>3</v>
@@ -11190,10 +11180,10 @@
         <v>117</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N63" s="16" t="s">
         <v>137</v>
@@ -11202,10 +11192,10 @@
         <v>117</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11213,13 +11203,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>144</v>
@@ -11228,7 +11218,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H64" s="16">
         <v>3</v>
@@ -11240,16 +11230,16 @@
         <v>118</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L64" s="16" t="s">
         <v>118</v>
       </c>
       <c r="M64" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O64" s="16" t="s">
         <v>117</v>
@@ -11258,7 +11248,7 @@
         <v>118</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11266,7 +11256,7 @@
         <v>64</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11274,7 +11264,7 @@
         <v>65</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11282,7 +11272,7 @@
         <v>66</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11290,7 +11280,7 @@
         <v>67</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11298,7 +11288,7 @@
         <v>68</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11306,7 +11296,7 @@
         <v>69</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11314,7 +11304,7 @@
         <v>70</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11322,7 +11312,7 @@
         <v>71</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11330,7 +11320,7 @@
         <v>72</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11338,7 +11328,7 @@
         <v>73</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11346,7 +11336,7 @@
         <v>74</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11354,7 +11344,7 @@
         <v>75</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11362,7 +11352,7 @@
         <v>76</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11370,7 +11360,7 @@
         <v>77</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11378,7 +11368,7 @@
         <v>78</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11386,7 +11376,7 @@
         <v>79</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B37420-7501-4505-A34C-19490AE01087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C777F19F-C223-42E1-9E72-9A83DD87EB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26685" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -3387,10 +3387,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>魔法+前排+半肉战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>狡诈之章</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -7322,6 +7318,10 @@
       <t>（D）
 3. 该单位被击杀后会清除场上自身所有的负面状态，同时回复其当前的最大生命值。（A）</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+中排+半肉战士</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7863,8 +7863,8 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>64</v>
@@ -8497,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" s="15">
         <v>3</v>
@@ -8550,7 +8550,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H13" s="15">
         <v>3</v>
@@ -9065,7 +9065,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>134</v>
@@ -9224,7 +9224,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>156</v>
@@ -9398,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H29" s="15">
         <v>2</v>
@@ -9610,7 +9610,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H33" s="15">
         <v>5</v>
@@ -9875,7 +9875,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H38" s="15">
         <v>3</v>
@@ -9915,11 +9915,11 @@
       <c r="B39" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>215</v>
@@ -9928,7 +9928,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H39" s="15">
         <v>3</v>
@@ -9958,7 +9958,7 @@
         <v>226</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -9966,52 +9966,52 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="F40" s="15">
         <v>6</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="15">
         <v>5</v>
       </c>
       <c r="I40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="K40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="L40" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="M40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="M40" s="19" t="s">
+      <c r="O40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P40" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="N40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="P40" s="19" t="s">
+      <c r="Q40" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10019,52 +10019,52 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" s="15">
         <v>6</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H41" s="15">
         <v>3</v>
       </c>
       <c r="I41" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q41" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="P41" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10072,52 +10072,52 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="E42" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="F42" s="15">
         <v>5</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H42" s="15">
         <v>3</v>
       </c>
       <c r="I42" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="K42" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="L42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="M42" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="L42" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="M42" s="19" t="s">
+      <c r="N42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q42" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="P42" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10125,52 +10125,52 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="F43" s="15">
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H43" s="15">
         <v>5</v>
       </c>
       <c r="I43" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="K43" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="M43" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="K43" s="19" t="s">
+      <c r="N43" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="P43" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="L43" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="O43" s="19" t="s">
+      <c r="Q43" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,52 +10178,52 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="F44" s="15">
         <v>6</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H44" s="15">
         <v>3</v>
       </c>
       <c r="I44" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="K44" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="L44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M44" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="N44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M44" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="P44" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10231,52 +10231,52 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="F45" s="15">
         <v>4</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H45" s="15">
         <v>5</v>
       </c>
       <c r="I45" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q45" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10284,72 +10284,72 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="D46" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F46" s="15">
         <v>6</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H46" s="15">
         <v>3</v>
       </c>
       <c r="I46" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="K46" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="K46" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="L46" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O46" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M46" s="15" t="s">
+      <c r="P46" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="N46" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="P46" s="15" t="s">
+      <c r="Q46" s="16" t="s">
         <v>301</v>
-      </c>
-      <c r="Q46" s="16" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="8" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="F47" s="8">
         <v>5</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H47" s="8">
         <v>2</v>
@@ -10379,7 +10379,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10387,19 +10387,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="E48" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F48" s="15">
         <v>4</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H48" s="15">
         <v>3</v>
@@ -10429,7 +10429,7 @@
         <v>22</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10437,10 +10437,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>114</v>
@@ -10449,7 +10449,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H49" s="15">
         <v>3</v>
@@ -10479,7 +10479,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10487,7 +10487,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>179</v>
@@ -10496,10 +10496,10 @@
         <v>114</v>
       </c>
       <c r="F50" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>316</v>
       </c>
       <c r="H50" s="15">
         <v>2</v>
@@ -10529,7 +10529,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10537,7 +10537,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>179</v>
@@ -10546,10 +10546,10 @@
         <v>114</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H51" s="15">
         <v>2</v>
@@ -10579,7 +10579,7 @@
         <v>22</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10587,19 +10587,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>163</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F52" s="15">
         <v>4</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H52" s="15">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         <v>22</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10637,19 +10637,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>163</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F53" s="15">
         <v>4</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H53" s="15">
         <v>1</v>
@@ -10679,7 +10679,7 @@
         <v>22</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10687,10 +10687,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>123</v>
@@ -10699,7 +10699,7 @@
         <v>6</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H54" s="15">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>22</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10737,19 +10737,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="F55" s="15">
         <v>6</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H55" s="15">
         <v>4</v>
@@ -10779,7 +10779,7 @@
         <v>137</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10787,10 +10787,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>114</v>
@@ -10799,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H56" s="15">
         <v>4</v>
@@ -10829,7 +10829,7 @@
         <v>137</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10837,7 +10837,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>175</v>
@@ -10849,7 +10849,7 @@
         <v>4</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H57" s="15">
         <v>3</v>
@@ -10879,15 +10879,15 @@
         <v>118</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="10" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>192</v>
@@ -10896,13 +10896,13 @@
         <v>151</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F58" s="11">
         <v>3</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H58" s="11">
         <v>2</v>
@@ -10920,7 +10920,7 @@
         <v>118</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>118</v>
@@ -10932,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10940,7 +10940,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>224</v>
@@ -10955,7 +10955,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H59" s="16">
         <v>3</v>
@@ -10985,7 +10985,7 @@
         <v>137</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -10993,7 +10993,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>192</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H60" s="16">
         <v>5</v>
@@ -11044,7 +11044,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>163</v>
@@ -11059,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H61" s="16">
         <v>1</v>
@@ -11089,7 +11089,7 @@
         <v>118</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11097,10 +11097,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>160</v>
@@ -11109,19 +11109,19 @@
         <v>144</v>
       </c>
       <c r="F62" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>359</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>130</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>117</v>
@@ -11130,10 +11130,10 @@
         <v>137</v>
       </c>
       <c r="M62" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="N62" s="16" t="s">
         <v>361</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>362</v>
       </c>
       <c r="O62" s="16" t="s">
         <v>165</v>
@@ -11142,7 +11142,7 @@
         <v>118</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11150,10 +11150,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>160</v>
@@ -11165,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H63" s="16">
         <v>3</v>
@@ -11180,10 +11180,10 @@
         <v>117</v>
       </c>
       <c r="L63" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M63" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="N63" s="16" t="s">
         <v>137</v>
@@ -11192,10 +11192,10 @@
         <v>117</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -11203,10 +11203,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>371</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>180</v>
@@ -11218,7 +11218,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H64" s="16">
         <v>3</v>
@@ -11236,10 +11236,10 @@
         <v>118</v>
       </c>
       <c r="M64" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O64" s="16" t="s">
         <v>117</v>
@@ -11248,7 +11248,7 @@
         <v>118</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">

--- a/Assets/DesignDocument/职业规划.xlsx
+++ b/Assets/DesignDocument/职业规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B87963-EC8E-4F1D-819E-DAF7EB506296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C777F19F-C223-42E1-9E72-9A83DD87EB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26685" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装备槽位标准为4个槽位，每个部位不能超过3个最大值
@@ -44,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>需要设计师对特性进行等级划分，分为SABC，其中消耗：S(5),A(2),B(1),C(-1),D(-3)
@@ -58,6 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>这里只是定性，标定特性是什么，以及特性的等级，其中用可改变变量特殊表示出来，后续可以根据特性等级来整体调整数值</t>
@@ -70,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>属性方面全部不填具体属性，全部填等级：
@@ -98,6 +102,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示该设计是否确定在游戏中使用，分为3个状态：
@@ -112,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="383">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.获得魔法强度时，将获得加值</t>
@@ -220,6 +226,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -229,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的物理强度(A)
@@ -239,6 +247,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -248,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的魔法强度(A)
@@ -258,6 +268,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>50%</t>
@@ -267,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>转换为护盾值(B)</t>
@@ -289,6 +301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用大剑武器时，获得</t>
@@ -298,6 +311,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>80%</t>
@@ -307,6 +321,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害加成(S)
@@ -317,6 +332,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -326,6 +342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理强度得生命窃取属性(A)
@@ -395,6 +412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.使用骑枪武器时，会在移动阶段对移动路径上的敌人造成一次伤害(不计入本次伤害中)(S)
@@ -405,6 +423,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -414,6 +433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>加成，可叠加(A)</t>
@@ -438,6 +458,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.额外获得一个饰品槽位(A)
@@ -449,6 +470,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30%</t>
@@ -458,6 +480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的护盾值(A)</t>
@@ -507,6 +530,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.被放置后永远无法主动或被动位移。（B）
@@ -518,6 +542,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>概率可参</t>
@@ -527,6 +552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的事件（神迹）。(S)</t>
@@ -561,6 +587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>弥达斯（Midas）
@@ -579,6 +606,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.基础属性较低，但会</t>
@@ -588,6 +616,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>根据玩家当前的金币数量而获得增强</t>
@@ -597,6 +626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（S）
@@ -621,55 +651,6 @@
     <t>傲慢之章</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.装备[乐器]类武器后，伤害类型由魔法转化为虔诚。（S）
-2.在参与击杀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等级小于等于该单位的敌人后，攻击会使</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌人击退一格。（B）
-3.装备[乐器]类武器后被控制时会大幅降低伤害。（D）</t>
-    </r>
-  </si>
-  <si>
     <t>[C,B]</t>
   </si>
   <si>
@@ -694,56 +675,6 @@
     <t>[3,0,1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.在玩家选择移动策略时无法向后移动。（D）
-2.在爆炸后将被炸退</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（C）
-3.与怪物接触时将以自身为中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3*3范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内爆炸，造成极高倍率的物理伤害。(S)
-4.装备与爆炸相关的武器时，会获得伤害加成。(A)</t>
-    </r>
-  </si>
-  <si>
     <t>[B,C]</t>
   </si>
   <si>
@@ -821,6 +752,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.装备[锁链]类武器后，攻击将会额外攻击一名2格内的敌人。(A)
@@ -832,6 +764,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>25%伤害</t>
@@ -841,6 +774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的攻击（触发特效）。（A）</t>
@@ -949,6 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会直接死亡。（S）
@@ -969,6 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（D）</t>
@@ -998,6 +934,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X点</t>
@@ -1007,6 +944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（A）
@@ -1027,6 +965,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的友军防御强度乘以</t>
@@ -1036,6 +975,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.2倍</t>
@@ -1045,14 +985,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（B）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>影袭</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1474,10 +1411,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>致命底牌*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[B,B,S,B]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1804,6 +1737,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.25</t>
@@ -1813,6 +1747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>倍。（C）</t>
@@ -1848,103 +1783,6 @@
   <si>
     <t>BD思路：
 1. 用于前期获取更多资源以追求后期上限的过渡角色，因为负面特性的存在，想要获得更多资源必须越大越苟，堆高生存。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外获得1~X枚额外金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. 当该单位上场并存活时，我方击杀敌人时掉落装备或身心的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率略微上涨X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（A）
-3. 在本章节中每存在一回合，便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少X点最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。当死亡时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>损失X%的金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（C）</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2229,6 +2067,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1个</t>
@@ -2238,6 +2077,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>护甲槽位，但是最大生命值会</t>
@@ -2247,6 +2087,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>降低20%</t>
@@ -2256,6 +2097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）
@@ -2277,6 +2119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。（B）</t>
@@ -2410,104 +2253,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. 该单位固定持有一把极为强大的武器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[弥留与终焉]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并且无法装备其他任何装备。（S）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[弥留与终焉]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一把输出极高，在击杀敌人后会获得巨额回复，并且能提高击杀奖励的强大武器，这个武器只能被</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[消逝弥撒亚]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装备，且无法脱下和出售。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-2. 根据章节回合数量，该单位会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每回合减少X%最大生命值，最低20%，并在章节结束后永久无法使用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（D）
-3. 该单位被击杀后会清除场上所有友方单位的负面状态，同时回复其当前的最大生命值。（A）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>BD思路：
 1. 极为强大的救场型角色，有着极低的刷新概率，并且只能在一章内使用，虽然他还会随着时间推移越发脆弱，但这并不影响只要拥有他在这一章可以说稳定过关，是非常考验启用时机的最后王牌。</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2697,6 +2442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：将</t>
@@ -2716,6 +2462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的装备拖在该单位上，这些装备会直接消失并产生一件随机的</t>
@@ -2735,6 +2482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的特殊装备，这些特殊装备都拥有非常</t>
@@ -2754,6 +2502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，且不可出售，最多制造</t>
@@ -2783,6 +2532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（A）
@@ -2867,6 +2617,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>100%</t>
@@ -2876,6 +2627,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>额外防御强度加成(S)
@@ -2892,6 +2644,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -2901,6 +2654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>物理强度的防御强度(A)
@@ -2911,6 +2665,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>15%</t>
@@ -2920,6 +2675,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>概率再次攻击一次(A)
@@ -2930,6 +2686,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -2939,6 +2696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>纯粹伤害(B)</t>
@@ -2954,6 +2712,7 @@
         <sz val="11"/>
         <color theme="5"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20%</t>
@@ -2963,6 +2722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>暴击率加成(A)
@@ -3627,10 +3387,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>魔法+前排+半肉战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>狡诈之章</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3846,6 +3602,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -4237,6 +3994,394 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>[B,A,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 挽救关键C位的辅助角色，但带来的负面效果同样巨大，如果奶量跟不上会容易导致队友持续死亡全盘崩溃的局面，所以最好搭配一个强奶量辅助使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱物疫医</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+半肉战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁拳大师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 当该单位装备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[拳套]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 类武器后，该单位的攻击速度固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">回合 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">次，且攻击范围变为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. 当该单位装备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[拳套]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 类武器后，伤害倍率 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3. 该单位暴击率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会转化为命中率。（B）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,1,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.装备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[乐器]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类武器后，伤害类型由魔法转化为虔诚。（S）
+2.在参与击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等级小于等于该单位的敌人后，攻击会使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人击退一格。（B）
+3.装备[乐器]类武器后被控制时会大幅降低伤害。（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.在玩家选择移动策略时无法向后移动。（D）
+2.在爆炸后将被炸退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）
+3.与怪物接触时将以自身为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内爆炸，造成极高倍率的物理伤害。(S)
+4.装备与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [爆炸]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 相关的武器时，会获得伤害加成。(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“代号影”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌袭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 低血量才能触发最大实力的物理近战C位，是利用高暴击率稳扎稳打输出或者巧妙利用特性在刀尖舔血打出高额输出，需要玩家有一定熟练度。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -4255,6 +4400,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：当队友收到致死伤害时，该单位会抽出其余所有队友</t>
@@ -4274,6 +4420,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>来令其不会死亡并回到</t>
@@ -4293,6 +4440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，冷却</t>
@@ -4312,6 +4460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">回合。（S）
@@ -4325,13 +4474,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>壮烈牺牲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+      <t>壮烈成仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：该单位每获得</t>
@@ -4351,6 +4501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>负面状态，便会增强自己</t>
@@ -4370,6 +4521,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的治疗效果。（A）
@@ -4390,6 +4542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：当该单位生命值低于</t>
@@ -4409,6 +4562,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时，会释放一次不分敌我的瘟疫冲击，造成</t>
@@ -4428,6 +4582,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>魔法伤害。（C）</t>
@@ -4435,177 +4590,2563 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>闪星</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+坦克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次承受伤害时，扣除的血量最多为最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星噬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，会偷取攻击者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的最大生命值。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湮灭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：每次触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，攻击者承受的伤害将会提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，不可叠加。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 一个针对于强力高伤敌人的前排坦克，拥有多次承受巨大伤害的独特能力，但是针对伤害偏低的群怪会非常平庸接近白板，适合高难度关卡攻坚使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻甲狂袭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐之章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 生命值低于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 时进入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态，攻击必定暴击，造成攻击力 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">150% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的伤害。（A）
+2. 进入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态后，受到的所有生命回复效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减半</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，移动速度 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。（B）
+3. 进入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态 后，每回合受到的第一次攻击无效。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A,B,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：该单位每回合只能进行 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 次攻击，造成 极高攻击力倍率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">） 的虔诚伤害。（S）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴怒的代价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：在使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 后，该单位会无法行动 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 回合。（D）
+3. 当 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 击杀一名敌人时，该单位会获得最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[S,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1. 输出极高的救场型角色，在面对残局时有极强的收割能力，但是在均势中难以发挥实力，容易在空白期被集火秒掉，是一个非常极端的输出爆发点。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行商菇人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+后排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商人的直觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：该单位在场时，商店刷新物品时有更高几率出现更为稀有的物品。（A）
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀价行家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：该单位在场时，在商店购买物品时有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">几率用更少的金币购买物品。（A）
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练毒成金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：使用 [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] 相关的武器时，每回合会获得一定金币。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>[B,A,B,B]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,A]</t>
+    <t>A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
-1. 挽救关键C位的辅助角色，但带来的负面效果同样巨大，如果奶量跟不上会容易导致队友持续死亡全盘崩溃的局面，所以最好搭配一个强奶量辅助使用。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱物疫医</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理+前排+半肉战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴虐之章</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[B,B]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A,B,B,B]</t>
+1. 与商店系统挂钩的辅助型角色，在阵容整体发育和养成中起到节省资源和加速成型的作用。
+2. 因为是蘑菇人所以有与毒亲和产出金币的能力，越早上场收益越大。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,3,1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.拳师无法装备武器，但能获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度加成(A)
+2.拳师每第三次攻击将附带敌方单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值的物理伤害(B)
+3.拳师的攻击会标记当前敌方单位，每秒获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击率加成，更新标记会清除此加成(A)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BD思路：
-1. 势大力沉，力大砖飞的战士角色，适合装备输出高攻速慢的武器以追求爆发。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁拳大师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 当该单位装备 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[拳套]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 类武器后，该单位的攻击速度固定为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">回合 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">次，且攻击范围变为 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1*3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。（A）
-2. 当该单位装备 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[拳套]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 类武器后，伤害倍率 * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>150%</t>
+1.对付精英和BOSS的强力站桩输出棋子
+2.无法装备武器，攻击型饰品的优先级提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾使</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+前排+肉盾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.圣盾使无法装备武器，转而使用盾牌进行挥击，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御强度的魔法伤害(A)
+2.圣盾使每10s获得最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾，持续5s，在护盾的保护下每秒恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值(B)
+3.圣盾使的护盾效率提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.找高抗性装备
+2.优先提高护盾效率和生命恢复的饰品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>割裂者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.割裂者的攻击分为三段式：1)砍:割裂者对面前一格的单位造成一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害。2)刺:割裂者对前方一行两格的单位造成一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害。3)挥:割裂者对前方一列三格的单位造成两段各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害(S)
+2.割裂者的攻击会有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的概率使敌方单位流血：每秒损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值，此效果可以叠加三层(A)
+3.割裂者会获得敌方单位流血伤害的等值生命恢复(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.找面板高攻击力的武器
+2.近战打群怪效率很高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒使者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.凛冬：极寒使者周围5*5格内单位的移动速度降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+2.凛冬范围内每有一个友方单位，极寒使者的伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+3.当极寒使者和熔岩领主同时在场时，凛冬缓移速降低效果翻倍，极寒使者获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的暴击几率，技能伤害可以暴击(X)
+4.极寒使者不能处于熔岩领主的赤炎范围内</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.中排控场单位
+2.和熔岩领主凑成双生羁绊，控图全场并提高伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩领主</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.赤炎：熔岩领主周围5*5格内单位的攻击速度降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+2.凛冬范围内每有一个友方单位，极寒使者的伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)
+3.当极寒使者和熔岩领主同时在场时，赤炎攻速降低效果翻倍，熔岩领主获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的暴击几率，技能伤害可以暴击(X)
+4.熔岩领主不能处于极寒使者的凛冬范围内</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.中排控场单位
+2.和极寒使者凑成双生羁绊，控图全场并提高伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶舞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.蝶舞每10s向最低百分比生命值的友方单位施加治愈之蝶，受到治愈之蝶的单位获得每秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值恢复效果(B)
+2.蝶舞每10s向最高百分比生命值的敌方单位施加哀伤之蝶(若场上存在2个及以上敌方单位，则哀伤之蝶不会连续标记同一个敌方单位)，友方单位击杀被诅咒的单位可获得激励效果，攻击速度提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，防御提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，激励效果持续10s(A)
+3.若蝶舞自己受到激励，则下一次释放治愈之蝶的目标个数+1(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.优先集火被哀伤之蝶标记的目标来提升实时战力
+2.蝶舞相当脆弱，需要时刻注意蝶舞血量
+3.找增加治疗量的饰品和法术强度的武器来增加蝶舞的治疗量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之祈愿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0,3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.风之祈愿在场时，所有友方单位的技能冷却减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.风之祈愿给予物理强度最高的友方单位提供增益，提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击速度，提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率(B)
+3.风之祈愿希望大家都好好活着，所有友方单位在受到敌方伤害时有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率获得该伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的护盾量(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.风之祈愿搭配技能型远程物理输出和有护盾增益的前排</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑梦师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+中排+辅助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.筑梦师会在敌方单位阵亡后收集梦之碎片，提升自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的治疗效果和护盾强度，并将梦之碎片转化成光束给予生命百分百最低的单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度的治疗效果(此条在装备[储梦灯笼]后无效)(A)
+2.装备[储梦灯笼]后筑梦师得到满足增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度，并且会让搜集到的梦之碎片散发梦之光，让周围5*5的单位每秒受到筑梦师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法强度的治疗效果(A)
+3.受到梦之光照耀的单位获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到治疗效率和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到护盾效率(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.当有储梦灯笼后，筑梦师将是一个强力的中排群奶单位
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>顷刻狐影</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,1,0]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.顷刻狐影每第四次攻击会旋转他的爪牙使出旋转舞爪，对周围一圈的敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的物理伤害，每有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率，此伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(A)
+2.顷刻狐影每次使用旋转舞爪会增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击几率，最高叠加至5层，移动后层数清零(B)
+3.顷刻狐影移动后立即触发一次旋转舞爪，攻击速度提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,持续5s(A)
+3.顷刻狐影的暴击可使敌人眩晕1s(B)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.顷刻狐影站桩输出可打出更高的控制效果
+2.移动后的AOE伤害能打出不错的收割，后续提供的攻速和伤害加成也能快速叠暴击率层数
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热双镰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.狂热双镰每次造成伤害能获得2点狂暴值，暴击获得3点狂暴值，当狂暴值达到50时进入狂暴状态(狂暴状态下造成伤害不获得狂暴值)，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻速提升和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害提升，每秒损失4狂暴值，狂暴值清零时退出狂暴状态(A)
+2.狂暴形态下狂热双镰每次攻击获得5%暴击几率加成，暴击的额外伤害转化成治疗，溢出的暴击率1:1转化为暴击伤害(A)
+3.狂热双镰每装备一把镰刀型武器，增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴击率(A)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.狂热双镰是一个不错的爆伤战士，造成暴击伤害的恢复量也给予了他一定的坦度
+2.镰刀型的武器优先给狂热双镰提升暴击率，以缩短狂暴状态之间的空档期
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>持斧小子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.持斧小子会将受到的伤害储存起来，当足矣造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值的伤害时立刻受到次此伤害，并且触发山崩地裂，对周围3*3范围内所有敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度的伤害，并且获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的减伤(A)
+2.持斧小子每造成8次伤害，会激活自己的战斗狂热，收到的伤害减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且每第三次攻击向前3格进行劈砍，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理强度的伤害，每损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值，此伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。战斗狂热持续6s(A)
+3.劈砍每名中一名敌方单位会恢复持斧小子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值(B)
+4.持斧小子装备斧类武器才能激活以上技能(C)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD思路：
+1.持斧小子仅持有斧头类武器才有相应的特性，所有优先把斧类武器给持斧小子
+2.持斧小子的伤害转化容易使其暴毙，在受到伤害之前将其奶到50%血量以上尤为关键
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触不良的灯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0，2，2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,B,A]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.堆高防御。保证生存及提高等级，通过其特性给予己方增益，给敌方伤害及消减
+2.放置在敌方和己方斗争比较多的地方收益大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自画像艺术家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.保证生存,搭配高输出，如果运气好可以攻击被控制的敌方，将会有较大收益
+2.堆高防御和武器得到高输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗落【金鱼草】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.播种：每两个回合诞生一个小金鱼草，一个回合后小金鱼草变成成年金鱼草，诞生的金鱼草血量，攻击，防御继承与母体，其中小金鱼草为母体的1/2，成年金鱼草为母体的1倍（A）
+2.母体死亡后，随机一只成年金鱼草会成为母体，如果没有，则等待小金鱼草成年，然后变成母体，如果都没有，则死亡（A）
+3.玩家只能操控母体，小金鱼草以及成年金鱼草无脑前进攻击敌人。（C）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.范围伤害。接触不良时（灯光不亮时），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5*5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">范围造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点固定物理伤害（闪电），持续 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个回合。（A）
+2. 范围增益。接触正常时（灯光亮），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5*5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">范围为友方恢复X点血量，并在范围内提供 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的攻击力加成，持续 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个回合。（A）
+3.升级加成：升到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">级后，接触不良状态对敌方额外减少 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的移动速度（A）
+4.路灯特性：一旦放置无法移动（D）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.一个回合只能对一名敌人造成伤害和影响，并且自身没有攻击力（D）
+2.自我怀疑：每一回合随机让一个对手这一回合无法产生任何行动（包括移动，攻击，回复），boss不会限制行动和回复（A）
+3.升级到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">级后，被控制的对手会在本回合攻击自己，精英怪在其范围外一个单位造成伤害，boss为2个单位。攻击伤害为原攻击的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（根据武器加成），（S）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入殓师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>己方buff：降低与死亡，恐惧相关的的负面buff，且存在时会有少量的攻击力增强buff，在其他角色死亡时，额外出现一次百分百暴击的攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌方buff：降低对面一定的攻击防御，减少对面的对自身的增益buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在发挥增益技能的回合，无法攻击和移动，闪避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.纯增益辅助型，较为脆皮，且攻击力低，                                                   2.尽可能存活，打出控场效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>荼姬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1物理+前排+辅助/2 物理+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助2/攻击3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助2/攻击4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助[B,B,C,A]/攻击[A,B,B,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助C/攻击B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.堆砌防具，饰品来保证荼姬的血量及坦度，避免她逃跑，以及利用她不会受到暴击的特性来扛伤
+2.辅助思路，保证存活并且控制关键敌人                                                       3攻击思路，保证存活，堆砌爆发，使用大招收割敌人，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝎尾夫人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术+后排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.传播病毒，存活时，使所有受到过魅惑的敌人每一回合受到一定的额外伤害。所有攻击附带毒效果，持续一定回合（A）
+2.被攻击的敌人，如果处于魅惑状态，触发暴击以及额外增加一定真实伤害。（B）
+3.移动速度是正常值的一半（C）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[B,A,A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1.适合在队伍阵容有魅惑角色的时候搭配使用。
+2.尽量对被魅惑的角色使用打出暴击以及真实伤害
+3.堆高爆发能力，使其能收割更多敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">虚伪的无私者 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚+前排+输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，每次移动结束，留下一个治疗光球，敌人接触到光球后，回一定量的血，叠加标记，然后从下一回合开始，根据标记的叠加，受到一定量的真实伤害，标记根据时间推移减少，至标记消失，攻击停止。（A）
+2，受到控制后，对敌方的标记层数-1；（C）
+3.杀死敌方数量累计到一定数量后，在经过格子上可留下的光球数目变多（A）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C,B,A,B]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD思路：
+1,尽可能堆砌防具来保证存活，存活越长就越有利。
+2，堆高伤害可以打持续高额伤害，达到消耗和收割效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.根据玩家色欲罪行会有两个形态，1形态为罪行低的状态，是辅助。2形态是罪行高的状态，是输出，不同的形态有不同的特征和剧情（A）
+2.兔子身型矮小，灵活，存在感不高，所以无法受到暴击，闪避高（A）。              
+ 3.兔子胆小，所以在生命值低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或受到恐吓的时候，会逃跑消失，且cd时间长（D）
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（强）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9（魏）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>46（俊）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>57（琳）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的底牌*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 当该单位上场并存活时，我方每击杀一名敌人获得金币时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外获得1~X枚额外金币</t>
     </r>
     <r>
       <rPr>
@@ -4616,28 +7157,171 @@
         <charset val="134"/>
       </rPr>
       <t>。（A）
-3. 该单位暴击率的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> X% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会转化为命中率。（B）</t>
-    </r>
+2. 当该单位上场并存活时，我方击杀敌人时掉落装备或职业的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率略微上涨X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（A）
+3. 在本章节中每存在一回合，便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少X点最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。当死亡时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损失X%的金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（C）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 该单位固定持有一把极为强大的武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[弥留与终焉]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并且无法装备其他任何装备。（S）
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[弥留与终焉]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一把输出极高，在击杀敌人后会获得巨额回复，并且能提高击杀奖励的强大武器，这个武器只能被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[消逝弥撒亚]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备，且无法脱下和出售。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+2. 根据章节回合数量，该单位会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合减少X%最大生命值，最低20%，并在章节结束后永久无法使用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（D）
+3. 该单位被击杀后会清除场上自身所有的负面状态，同时回复其当前的最大生命值。（A）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法+中排+半肉战士</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4645,7 +7329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4658,12 +7342,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4676,11 +7362,13 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4706,13 +7394,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4724,8 +7405,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4747,6 +7442,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4780,14 +7487,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4799,22 +7503,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5130,31 +7864,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="100.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3"/>
-    <col min="13" max="13" width="28.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="3"/>
-    <col min="15" max="15" width="18.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="3"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="100.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="2"/>
+    <col min="13" max="13" width="28.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="2"/>
+    <col min="15" max="15" width="18.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="2"/>
     <col min="17" max="17" width="60.625" customWidth="1"/>
-    <col min="18" max="26" width="8.875" style="3"/>
-    <col min="27" max="27" width="14.375" style="3"/>
-    <col min="28" max="16384" width="8.875" style="3"/>
+    <col min="18" max="26" width="8.875" style="2"/>
+    <col min="27" max="27" width="14.375" style="2"/>
+    <col min="28" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -5167,10 +7901,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5179,7 +7913,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5194,7 +7928,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -5213,2486 +7947,3442 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="13">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="13">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="16">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="15">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="15">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="5" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="15">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="15">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="15">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:18" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="15">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="15">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="15">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="15">
         <v>3</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="G13" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="J14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="K14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15">
+        <v>4</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="15">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="M18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15">
+        <v>3</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="15">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="L19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
+      <c r="M19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="3">
+    <row r="20" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="15">
         <v>3</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="I20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="15">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="15">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="19">
         <v>3</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="15">
+        <v>4</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="15">
+        <v>2</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="15">
+        <v>3</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="15">
+        <v>3</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="15">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="15">
+        <v>4</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="15">
+        <v>3</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="15">
+        <v>4</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H33" s="15">
+        <v>5</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="15">
+        <v>4</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="19">
+        <v>1</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="15">
+        <v>4</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="15">
+        <v>2</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="15">
+        <v>6</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="15">
+        <v>3</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="15">
+        <v>6</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H37" s="15">
+        <v>3</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="15">
+        <v>6</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" s="15">
+        <v>3</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="15">
+        <v>6</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="15">
+        <v>6</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="15">
+        <v>5</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="15">
+        <v>6</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="15">
+        <v>3</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="15">
+        <v>5</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="15">
+        <v>3</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" s="15">
+        <v>5</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="15">
+        <v>5</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="15">
+        <v>6</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="15">
+        <v>3</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="15">
+        <v>4</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H45" s="15">
+        <v>5</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H46" s="15">
+        <v>3</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="8">
+        <v>5</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="K47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
+      <c r="M47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    <row r="48" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="15">
+        <v>4</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H48" s="15">
+        <v>3</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H49" s="15">
+        <v>3</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H50" s="15">
+        <v>2</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="F14" s="3">
+      <c r="B51" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H51" s="15">
+        <v>2</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="15">
         <v>4</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G52" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" s="15">
+        <v>4</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="15">
+        <v>6</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="15">
+        <v>6</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="15">
+        <v>4</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="15">
+        <v>6</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="H56" s="15">
+        <v>4</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="15">
+        <v>4</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H57" s="15">
+        <v>3</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="10" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F58" s="11">
+        <v>3</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H58" s="11">
         <v>2</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
+      <c r="I58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3">
+    <row r="59" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="16">
+        <v>5</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H59" s="16">
+        <v>3</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="15" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="16">
+        <v>3</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H60" s="16">
+        <v>5</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="16">
+        <v>3</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H61" s="16">
+        <v>1</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q62" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G63" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H63" s="16">
         <v>3</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
+      <c r="I63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q63" s="16" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="3">
+    <row r="64" spans="1:17" s="16" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G64" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H64" s="16">
         <v>3</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="O64" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="P64" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="10">
-        <v>3</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="10">
-        <v>1</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="3">
-        <v>6</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" s="3">
-        <v>3</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="3">
-        <v>6</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="3">
-        <v>3</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="3">
-        <v>6</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38" s="3">
-        <v>3</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="3">
-        <v>6</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39" s="3">
-        <v>3</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H40" s="3">
-        <v>5</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q42" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="Q50" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="Q53" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="Q55" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="Q58" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="Q59" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q61" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="Q63" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>190</v>
+      <c r="Q64" s="16" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="Q65" s="9" t="s">
-        <v>190</v>
+      <c r="Q65" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="Q66" s="9" t="s">
-        <v>190</v>
+      <c r="Q66" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="Q67" s="9" t="s">
-        <v>190</v>
+      <c r="Q67" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="Q68" s="9" t="s">
-        <v>190</v>
+      <c r="Q68" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="Q69" s="9" t="s">
-        <v>190</v>
+      <c r="Q69" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="Q70" s="9" t="s">
-        <v>190</v>
+      <c r="Q70" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="Q71" s="9" t="s">
-        <v>190</v>
+      <c r="Q71" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="Q72" s="9" t="s">
-        <v>190</v>
+      <c r="Q72" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="Q73" s="9" t="s">
-        <v>190</v>
+      <c r="Q73" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="Q74" s="9" t="s">
-        <v>190</v>
+      <c r="Q74" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="Q75" s="9" t="s">
-        <v>190</v>
+      <c r="Q75" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="Q76" s="9" t="s">
-        <v>190</v>
+      <c r="Q76" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="Q77" s="9" t="s">
-        <v>190</v>
+      <c r="Q77" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="Q78" s="9" t="s">
-        <v>190</v>
+      <c r="Q78" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="Q79" s="9" t="s">
-        <v>190</v>
+      <c r="Q79" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="Q80" s="9" t="s">
-        <v>190</v>
+      <c r="Q80" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>